--- a/咕噜链小程序测试用例(1).xlsx
+++ b/咕噜链小程序测试用例(1).xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaolili/Desktop/testCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{39F1D13D-5672-D04E-9201-5F4C8B440082}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="23040" windowHeight="8976" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="23040" windowHeight="11220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登录注册" sheetId="25" r:id="rId1"/>
-    <sheet name="个人用户" sheetId="20" r:id="rId2"/>
-    <sheet name="商家店铺" sheetId="23" r:id="rId3"/>
+    <sheet name="添加新任务" sheetId="26" r:id="rId2"/>
+    <sheet name="个人用户" sheetId="20" r:id="rId3"/>
+    <sheet name="商家店铺" sheetId="23" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" calcMode="manual"/>
   <extLst>
@@ -5945,8 +5952,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6609,6 +6616,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6620,14 +6635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="563">
@@ -7529,44 +7536,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="49.19921875" customWidth="1"/>
-    <col min="8" max="8" width="51.09765625" customWidth="1"/>
+    <col min="7" max="7" width="49.1640625" customWidth="1"/>
+    <col min="8" max="8" width="51.1640625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="18.796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21.69921875" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="28">
+      <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="23">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7604,33 +7611,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="45">
+      <c r="A3" s="8"/>
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>1368</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>1361</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="10" t="s">
         <v>1362</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="90">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" t="s">
         <v>1356</v>
       </c>
@@ -7644,9 +7651,9 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:12">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>14</v>
       </c>
@@ -7660,9 +7667,9 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:12">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>37</v>
       </c>
@@ -7673,9 +7680,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:12">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>34</v>
       </c>
@@ -7686,9 +7693,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+    <row r="8" spans="1:12" ht="75">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>38</v>
       </c>
@@ -7699,9 +7706,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+    <row r="9" spans="1:12">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>35</v>
       </c>
@@ -7712,9 +7719,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="30">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3" t="s">
         <v>93</v>
       </c>
@@ -7729,9 +7736,9 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+    <row r="11" spans="1:12">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" t="s">
         <v>36</v>
       </c>
@@ -7742,9 +7749,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:12" s="3" customFormat="1">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3" t="s">
         <v>82</v>
       </c>
@@ -7759,9 +7766,9 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+    <row r="13" spans="1:12">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" t="s">
         <v>158</v>
       </c>
@@ -7775,9 +7782,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+    <row r="14" spans="1:12" ht="30">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" t="s">
         <v>161</v>
       </c>
@@ -7791,9 +7798,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+    <row r="15" spans="1:12" ht="45">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" t="s">
         <v>164</v>
       </c>
@@ -7804,9 +7811,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+    <row r="16" spans="1:12" ht="30">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" t="s">
         <v>119</v>
       </c>
@@ -7820,9 +7827,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+    <row r="17" spans="2:11" ht="30">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" t="s">
         <v>913</v>
       </c>
@@ -7836,9 +7843,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+    <row r="18" spans="2:11">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" t="s">
         <v>125</v>
       </c>
@@ -7852,9 +7859,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="2:11" ht="60">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
         <v>1369</v>
       </c>
       <c r="D19" t="s">
@@ -7867,9 +7874,9 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+    <row r="20" spans="2:11" ht="165">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" t="s">
         <v>1335</v>
       </c>
@@ -7883,9 +7890,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+    <row r="21" spans="2:11" ht="90">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" t="s">
         <v>192</v>
       </c>
@@ -7899,9 +7906,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="2:11">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" t="s">
         <v>37</v>
       </c>
@@ -7912,9 +7919,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" t="s">
         <v>34</v>
       </c>
@@ -7925,9 +7932,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+    <row r="24" spans="2:11" ht="75">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" t="s">
         <v>41</v>
       </c>
@@ -7938,9 +7945,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+    <row r="25" spans="2:11">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" t="s">
         <v>35</v>
       </c>
@@ -7951,9 +7958,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+    <row r="26" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="3" t="s">
         <v>93</v>
       </c>
@@ -7968,9 +7975,9 @@
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+    <row r="27" spans="2:11">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
       <c r="D27" t="s">
         <v>36</v>
       </c>
@@ -7981,9 +7988,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+    <row r="28" spans="2:11">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" t="s">
         <v>39</v>
       </c>
@@ -7994,9 +8001,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+    <row r="29" spans="2:11" ht="90">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="2" t="s">
         <v>40</v>
       </c>
@@ -8007,9 +8014,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+    <row r="30" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="5" t="s">
         <v>77</v>
       </c>
@@ -8021,9 +8028,9 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+    <row r="31" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="3" t="s">
         <v>97</v>
       </c>
@@ -8038,9 +8045,9 @@
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+    <row r="32" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="5" t="s">
         <v>91</v>
       </c>
@@ -8052,9 +8059,9 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+    <row r="33" spans="2:11" ht="30">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" t="s">
         <v>44</v>
       </c>
@@ -8065,9 +8072,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+    <row r="34" spans="2:11">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" t="s">
         <v>46</v>
       </c>
@@ -8078,9 +8085,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+    <row r="35" spans="2:11" ht="90">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
       <c r="D35" t="s">
         <v>51</v>
       </c>
@@ -8091,9 +8098,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="2:11">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="2" t="s">
         <v>67</v>
       </c>
@@ -8104,9 +8111,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" spans="2:11">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="2" t="s">
         <v>70</v>
       </c>
@@ -8117,9 +8124,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+    <row r="38" spans="2:11" ht="30">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="2" t="s">
         <v>73</v>
       </c>
@@ -8130,9 +8137,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+    <row r="39" spans="2:11" ht="30">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="2" t="s">
         <v>75</v>
       </c>
@@ -8143,9 +8150,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+    <row r="40" spans="2:11">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="2" t="s">
         <v>87</v>
       </c>
@@ -8156,9 +8163,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+    <row r="41" spans="2:11" ht="105">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="2" t="s">
         <v>90</v>
       </c>
@@ -8169,9 +8176,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+    <row r="42" spans="2:11" ht="30">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" t="s">
         <v>78</v>
       </c>
@@ -8182,9 +8189,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="3" t="s">
         <v>80</v>
       </c>
@@ -8196,9 +8203,9 @@
       </c>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+    <row r="44" spans="2:11">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="D44" t="s">
         <v>54</v>
       </c>
@@ -8209,9 +8216,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+    <row r="45" spans="2:11" ht="30">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" t="s">
         <v>55</v>
       </c>
@@ -8222,9 +8229,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+    <row r="46" spans="2:11" ht="30">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="2" t="s">
         <v>56</v>
       </c>
@@ -8238,9 +8245,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+    <row r="47" spans="2:11" ht="30">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="2" t="s">
         <v>59</v>
       </c>
@@ -8251,9 +8258,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+    <row r="48" spans="2:11" ht="30">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="2" t="s">
         <v>62</v>
       </c>
@@ -8267,9 +8274,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+    <row r="49" spans="2:11">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="2" t="s">
         <v>101</v>
       </c>
@@ -8280,9 +8287,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+    <row r="50" spans="2:11">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="2" t="s">
         <v>103</v>
       </c>
@@ -8293,9 +8300,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+    <row r="51" spans="2:11" ht="30">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="2" t="s">
         <v>104</v>
       </c>
@@ -8306,9 +8313,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+    <row r="52" spans="2:11" ht="30">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="2" t="s">
         <v>184</v>
       </c>
@@ -8319,9 +8326,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+    <row r="53" spans="2:11" ht="30">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="2" t="s">
         <v>185</v>
       </c>
@@ -8332,9 +8339,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+    <row r="54" spans="2:11" s="3" customFormat="1">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5" t="s">
         <v>106</v>
       </c>
@@ -8346,9 +8353,9 @@
       </c>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+    <row r="55" spans="2:11">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="2" t="s">
         <v>125</v>
       </c>
@@ -8362,9 +8369,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+    <row r="56" spans="2:11">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="2" t="s">
         <v>127</v>
       </c>
@@ -8378,9 +8385,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+    <row r="57" spans="2:11">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="2" t="s">
         <v>135</v>
       </c>
@@ -8394,9 +8401,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+    <row r="58" spans="2:11">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="2" t="s">
         <v>136</v>
       </c>
@@ -8410,9 +8417,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8" t="s">
+    <row r="59" spans="2:11">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -8425,9 +8432,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+    <row r="60" spans="2:11">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="2" t="s">
         <v>142</v>
       </c>
@@ -8438,9 +8445,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+    <row r="61" spans="2:11">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="2" t="s">
         <v>146</v>
       </c>
@@ -8451,9 +8458,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+    <row r="62" spans="2:11" s="3" customFormat="1">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="5" t="s">
         <v>125</v>
       </c>
@@ -8468,9 +8475,9 @@
       </c>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+    <row r="63" spans="2:11" s="3" customFormat="1">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="5" t="s">
         <v>151</v>
       </c>
@@ -8485,9 +8492,9 @@
       </c>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8" t="s">
+    <row r="64" spans="2:11" ht="45">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -8503,9 +8510,9 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+    <row r="65" spans="2:11" ht="30">
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="2" t="s">
         <v>167</v>
       </c>
@@ -8516,9 +8523,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+    <row r="66" spans="2:11" ht="30">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="2" t="s">
         <v>170</v>
       </c>
@@ -8532,9 +8539,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+    <row r="67" spans="2:11" ht="30">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="2" t="s">
         <v>176</v>
       </c>
@@ -8548,9 +8555,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+    <row r="68" spans="2:11" ht="30">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="2" t="s">
         <v>177</v>
       </c>
@@ -8564,9 +8571,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+    <row r="69" spans="2:11" ht="30">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="2" t="s">
         <v>179</v>
       </c>
@@ -8580,9 +8587,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+    <row r="70" spans="2:11" ht="45">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="2" t="s">
         <v>189</v>
       </c>
@@ -8596,9 +8603,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8" t="s">
+    <row r="71" spans="2:11" ht="30">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12" t="s">
         <v>187</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -8614,9 +8621,9 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+    <row r="72" spans="2:11" ht="60">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="2" t="s">
         <v>193</v>
       </c>
@@ -8627,9 +8634,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+    <row r="73" spans="2:11">
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="2" t="s">
         <v>195</v>
       </c>
@@ -8640,9 +8647,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+    <row r="74" spans="2:11">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
       <c r="D74" t="s">
         <v>36</v>
       </c>
@@ -8653,9 +8660,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+    <row r="75" spans="2:11">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
       <c r="D75" t="s">
         <v>39</v>
       </c>
@@ -8666,9 +8673,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+    <row r="76" spans="2:11" ht="90">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="2" t="s">
         <v>40</v>
       </c>
@@ -8679,9 +8686,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+    <row r="77" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="5" t="s">
         <v>77</v>
       </c>
@@ -8693,9 +8700,9 @@
       </c>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
+    <row r="78" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="3" t="s">
         <v>97</v>
       </c>
@@ -8710,9 +8717,9 @@
       </c>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+    <row r="79" spans="2:11">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="2" t="s">
         <v>67</v>
       </c>
@@ -8723,9 +8730,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
+    <row r="80" spans="2:11">
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="2" t="s">
         <v>70</v>
       </c>
@@ -8736,9 +8743,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+    <row r="81" spans="2:8" ht="30">
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="2" t="s">
         <v>73</v>
       </c>
@@ -8749,9 +8756,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
+    <row r="82" spans="2:8" ht="30">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="2" t="s">
         <v>75</v>
       </c>
@@ -8762,9 +8769,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+    <row r="83" spans="2:8" ht="45">
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="2" t="s">
         <v>199</v>
       </c>
@@ -8775,9 +8782,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+    <row r="84" spans="2:8">
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="2" t="s">
         <v>125</v>
       </c>
@@ -8791,9 +8798,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+    <row r="85" spans="2:8">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="2" t="s">
         <v>127</v>
       </c>
@@ -8807,9 +8814,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+    <row r="86" spans="2:8">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="2" t="s">
         <v>136</v>
       </c>
@@ -8823,9 +8830,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+    <row r="87" spans="2:8">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="2" t="s">
         <v>142</v>
       </c>
@@ -8836,9 +8843,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+    <row r="88" spans="2:8">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="2" t="s">
         <v>106</v>
       </c>
@@ -8866,44 +8873,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F185A14-617A-A24E-9FDC-D6F8950F52F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="49.19921875" customWidth="1"/>
-    <col min="8" max="8" width="51.09765625" customWidth="1"/>
+    <col min="7" max="7" width="49.1640625" customWidth="1"/>
+    <col min="8" max="8" width="51.1640625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="18.796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21.69921875" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="28">
+      <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="23">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8941,11 +8963,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:12" ht="60">
+      <c r="B3" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -8961,9 +8983,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:12" ht="120">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2" t="s">
         <v>215</v>
       </c>
@@ -8977,9 +8999,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:12">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2" t="s">
         <v>684</v>
       </c>
@@ -8991,9 +9013,9 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="156" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:12" ht="150">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
         <v>225</v>
       </c>
@@ -9007,9 +9029,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="156" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:12" ht="150">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="2" t="s">
         <v>226</v>
       </c>
@@ -9023,9 +9045,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="156" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+    <row r="8" spans="1:12" ht="150">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="2" t="s">
         <v>230</v>
       </c>
@@ -9039,9 +9061,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+    <row r="9" spans="1:12" ht="120">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
         <v>233</v>
       </c>
@@ -9055,9 +9077,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:12" ht="30">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
         <v>236</v>
       </c>
@@ -9071,9 +9093,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+    <row r="11" spans="1:12" ht="45">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
         <v>224</v>
       </c>
@@ -9087,9 +9109,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:12" ht="30">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
         <v>242</v>
       </c>
@@ -9100,9 +9122,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+    <row r="13" spans="1:12">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="2" t="s">
         <v>244</v>
       </c>
@@ -9113,9 +9135,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+    <row r="14" spans="1:12" ht="30">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="2" t="s">
         <v>248</v>
       </c>
@@ -9126,9 +9148,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+    <row r="15" spans="1:12">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="2" t="s">
         <v>251</v>
       </c>
@@ -9142,9 +9164,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+    <row r="16" spans="1:12" ht="30">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="2" t="s">
         <v>255</v>
       </c>
@@ -9155,9 +9177,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+    <row r="17" spans="2:11" ht="30">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="2" t="s">
         <v>914</v>
       </c>
@@ -9168,9 +9190,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+    <row r="18" spans="2:11" ht="30">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="2" t="s">
         <v>260</v>
       </c>
@@ -9181,9 +9203,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+    <row r="19" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="5" t="s">
         <v>493</v>
       </c>
@@ -9195,9 +9217,9 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+    <row r="20" spans="2:11">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="2" t="s">
         <v>265</v>
       </c>
@@ -9208,9 +9230,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+    <row r="21" spans="2:11" ht="30">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="2" t="s">
         <v>278</v>
       </c>
@@ -9224,9 +9246,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="2:11" ht="30">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="2" t="s">
         <v>275</v>
       </c>
@@ -9240,9 +9262,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="2" t="s">
         <v>271</v>
       </c>
@@ -9253,9 +9275,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+    <row r="24" spans="2:11" ht="30">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="2" t="s">
         <v>498</v>
       </c>
@@ -9269,9 +9291,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+    <row r="25" spans="2:11">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="2" t="s">
         <v>280</v>
       </c>
@@ -9282,9 +9304,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+    <row r="26" spans="2:11">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="2" t="s">
         <v>284</v>
       </c>
@@ -9298,9 +9320,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+    <row r="27" spans="2:11">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="2" t="s">
         <v>285</v>
       </c>
@@ -9314,9 +9336,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+    <row r="28" spans="2:11">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="2" t="s">
         <v>288</v>
       </c>
@@ -9327,9 +9349,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+    <row r="29" spans="2:11">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="2" t="s">
         <v>337</v>
       </c>
@@ -9340,9 +9362,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+    <row r="30" spans="2:11">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="2" t="s">
         <v>339</v>
       </c>
@@ -9353,9 +9375,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+    <row r="31" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="5" t="s">
         <v>151</v>
       </c>
@@ -9370,9 +9392,9 @@
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+    <row r="32" spans="2:11" s="3" customFormat="1">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="5" t="s">
         <v>292</v>
       </c>
@@ -9387,9 +9409,9 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+    <row r="33" spans="2:8" ht="30">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12" t="s">
         <v>297</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -9402,9 +9424,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+    <row r="34" spans="2:8">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="5" t="s">
         <v>301</v>
       </c>
@@ -9415,9 +9437,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+    <row r="35" spans="2:8" ht="45">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="5" t="s">
         <v>304</v>
       </c>
@@ -9428,9 +9450,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="2:8" ht="45">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="5" t="s">
         <v>306</v>
       </c>
@@ -9441,9 +9463,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" spans="2:8" ht="30">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="5" t="s">
         <v>499</v>
       </c>
@@ -9457,9 +9479,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+    <row r="38" spans="2:8" ht="30">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="5" t="s">
         <v>312</v>
       </c>
@@ -9473,9 +9495,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+    <row r="39" spans="2:8" ht="30">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="5" t="s">
         <v>315</v>
       </c>
@@ -9489,9 +9511,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+    <row r="40" spans="2:8">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="5" t="s">
         <v>320</v>
       </c>
@@ -9505,9 +9527,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+    <row r="41" spans="2:8" ht="30">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="5" t="s">
         <v>323</v>
       </c>
@@ -9521,9 +9543,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+    <row r="42" spans="2:8">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="5" t="s">
         <v>326</v>
       </c>
@@ -9537,9 +9559,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="2:8" ht="30">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="5" t="s">
         <v>327</v>
       </c>
@@ -9553,9 +9575,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+    <row r="44" spans="2:8">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="5" t="s">
         <v>333</v>
       </c>
@@ -9569,9 +9591,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+    <row r="45" spans="2:8">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="5" t="s">
         <v>341</v>
       </c>
@@ -9582,9 +9604,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+    <row r="46" spans="2:8">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="5" t="s">
         <v>344</v>
       </c>
@@ -9595,9 +9617,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+    <row r="47" spans="2:8" ht="30">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="5" t="s">
         <v>357</v>
       </c>
@@ -9611,9 +9633,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+    <row r="48" spans="2:8" ht="30">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="5" t="s">
         <v>358</v>
       </c>
@@ -9627,9 +9649,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+    <row r="49" spans="2:11">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="5" t="s">
         <v>348</v>
       </c>
@@ -9640,9 +9662,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+    <row r="50" spans="2:11">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="5" t="s">
         <v>351</v>
       </c>
@@ -9653,9 +9675,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+    <row r="51" spans="2:11">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="5" t="s">
         <v>354</v>
       </c>
@@ -9666,9 +9688,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+    <row r="52" spans="2:11">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="5" t="s">
         <v>363</v>
       </c>
@@ -9682,9 +9704,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+    <row r="53" spans="2:11">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="5" t="s">
         <v>367</v>
       </c>
@@ -9698,9 +9720,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+    <row r="54" spans="2:11">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5" t="s">
         <v>371</v>
       </c>
@@ -9711,9 +9733,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+    <row r="55" spans="2:11">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="5" t="s">
         <v>373</v>
       </c>
@@ -9724,9 +9746,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="56" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+    <row r="56" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="5" t="s">
         <v>376</v>
       </c>
@@ -9741,9 +9763,9 @@
       </c>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+    <row r="57" spans="2:11" s="3" customFormat="1">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="5" t="s">
         <v>292</v>
       </c>
@@ -9758,9 +9780,9 @@
       </c>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
+    <row r="58" spans="2:11" ht="30">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12" t="s">
         <v>373</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -9773,9 +9795,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+    <row r="59" spans="2:11">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="5" t="s">
         <v>382</v>
       </c>
@@ -9786,9 +9808,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+    <row r="60" spans="2:11">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="5" t="s">
         <v>394</v>
       </c>
@@ -9799,9 +9821,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+    <row r="61" spans="2:11" ht="30">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="5" t="s">
         <v>397</v>
       </c>
@@ -9812,9 +9834,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+    <row r="62" spans="2:11">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="5" t="s">
         <v>400</v>
       </c>
@@ -9825,9 +9847,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+    <row r="63" spans="2:11" ht="45">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="5" t="s">
         <v>389</v>
       </c>
@@ -9841,9 +9863,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+    <row r="64" spans="2:11" ht="45">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="5" t="s">
         <v>390</v>
       </c>
@@ -9857,9 +9879,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+    <row r="65" spans="2:8" ht="45">
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="5" t="s">
         <v>391</v>
       </c>
@@ -9873,9 +9895,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+    <row r="66" spans="2:8" ht="45">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="5" t="s">
         <v>392</v>
       </c>
@@ -9889,9 +9911,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+    <row r="67" spans="2:8" ht="45">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="5" t="s">
         <v>403</v>
       </c>
@@ -9905,9 +9927,9 @@
         <v>406</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+    <row r="68" spans="2:8">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="5" t="s">
         <v>410</v>
       </c>
@@ -9918,9 +9940,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+    <row r="69" spans="2:8">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="5" t="s">
         <v>879</v>
       </c>
@@ -9931,9 +9953,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+    <row r="70" spans="2:8" ht="30">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="5" t="s">
         <v>412</v>
       </c>
@@ -9944,9 +9966,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
+    <row r="71" spans="2:8">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="5" t="s">
         <v>413</v>
       </c>
@@ -9957,9 +9979,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+    <row r="72" spans="2:8" ht="30">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="5" t="s">
         <v>414</v>
       </c>
@@ -9973,9 +9995,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+    <row r="73" spans="2:8">
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="5" t="s">
         <v>415</v>
       </c>
@@ -9989,9 +10011,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+    <row r="74" spans="2:8">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="5" t="s">
         <v>419</v>
       </c>
@@ -10005,9 +10027,9 @@
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+    <row r="75" spans="2:8" ht="30">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="5" t="s">
         <v>423</v>
       </c>
@@ -10021,9 +10043,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+    <row r="76" spans="2:8" ht="75">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="5" t="s">
         <v>426</v>
       </c>
@@ -10034,9 +10056,9 @@
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+    <row r="77" spans="2:8">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="5" t="s">
         <v>429</v>
       </c>
@@ -10047,9 +10069,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
+    <row r="78" spans="2:8">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="5" t="s">
         <v>433</v>
       </c>
@@ -10060,9 +10082,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+    <row r="79" spans="2:8">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="5" t="s">
         <v>436</v>
       </c>
@@ -10076,9 +10098,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
+    <row r="80" spans="2:8">
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="5" t="s">
         <v>438</v>
       </c>
@@ -10092,9 +10114,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="81" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+    <row r="81" spans="2:11" s="3" customFormat="1">
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="5" t="s">
         <v>292</v>
       </c>
@@ -10109,9 +10131,9 @@
       </c>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8" t="s">
+    <row r="82" spans="2:11" ht="30">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12" t="s">
         <v>442</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -10124,9 +10146,9 @@
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+    <row r="83" spans="2:11">
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="5" t="s">
         <v>445</v>
       </c>
@@ -10137,9 +10159,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+    <row r="84" spans="2:11">
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="5" t="s">
         <v>447</v>
       </c>
@@ -10150,9 +10172,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+    <row r="85" spans="2:11" ht="30">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="5" t="s">
         <v>581</v>
       </c>
@@ -10166,9 +10188,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+    <row r="86" spans="2:11" ht="30">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="5" t="s">
         <v>580</v>
       </c>
@@ -10182,9 +10204,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+    <row r="87" spans="2:11" ht="45">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="5" t="s">
         <v>584</v>
       </c>
@@ -10198,9 +10220,9 @@
         <v>586</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+    <row r="88" spans="2:11" ht="30">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="5" t="s">
         <v>451</v>
       </c>
@@ -10211,9 +10233,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+    <row r="89" spans="2:11">
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="5" t="s">
         <v>452</v>
       </c>
@@ -10224,9 +10246,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+    <row r="90" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
       <c r="D90" s="5" t="s">
         <v>292</v>
       </c>
@@ -10241,9 +10263,9 @@
       </c>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8" t="s">
+    <row r="91" spans="2:11" ht="45">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12" t="s">
         <v>459</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -10256,9 +10278,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+    <row r="92" spans="2:11" ht="75">
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="5" t="s">
         <v>461</v>
       </c>
@@ -10269,9 +10291,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="93" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+    <row r="93" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="5" t="s">
         <v>429</v>
       </c>
@@ -10283,9 +10305,9 @@
       </c>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
+    <row r="94" spans="2:11" ht="30">
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
       <c r="D94" s="5" t="s">
         <v>465</v>
       </c>
@@ -10296,9 +10318,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+    <row r="95" spans="2:11">
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="5" t="s">
         <v>468</v>
       </c>
@@ -10309,9 +10331,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
+    <row r="96" spans="2:11" ht="30">
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="5" t="s">
         <v>471</v>
       </c>
@@ -10322,9 +10344,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
+    <row r="97" spans="2:11">
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="5" t="s">
         <v>474</v>
       </c>
@@ -10335,9 +10357,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
+    <row r="98" spans="2:11" ht="45">
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="5" t="s">
         <v>477</v>
       </c>
@@ -10348,9 +10370,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
+    <row r="99" spans="2:11">
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="5" t="s">
         <v>487</v>
       </c>
@@ -10364,9 +10386,9 @@
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
+    <row r="100" spans="2:11">
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="5" t="s">
         <v>480</v>
       </c>
@@ -10377,9 +10399,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
+    <row r="101" spans="2:11" ht="30">
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="5" t="s">
         <v>483</v>
       </c>
@@ -10390,9 +10412,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="102" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+    <row r="102" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="5" t="s">
         <v>490</v>
       </c>
@@ -10407,9 +10429,9 @@
       </c>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B103" s="8"/>
-      <c r="C103" s="8" t="s">
+    <row r="103" spans="2:11" ht="45">
+      <c r="B103" s="12"/>
+      <c r="C103" s="12" t="s">
         <v>492</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -10422,9 +10444,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
+    <row r="104" spans="2:11" ht="45">
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="5" t="s">
         <v>509</v>
       </c>
@@ -10435,9 +10457,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+    <row r="105" spans="2:11">
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="5" t="s">
         <v>548</v>
       </c>
@@ -10448,9 +10470,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
+    <row r="106" spans="2:11">
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="5" t="s">
         <v>515</v>
       </c>
@@ -10461,9 +10483,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
+    <row r="107" spans="2:11" ht="30">
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="5" t="s">
         <v>520</v>
       </c>
@@ -10474,9 +10496,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+    <row r="108" spans="2:11">
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="5" t="s">
         <v>521</v>
       </c>
@@ -10487,9 +10509,9 @@
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
+    <row r="109" spans="2:11">
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="5" t="s">
         <v>524</v>
       </c>
@@ -10503,9 +10525,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
+    <row r="110" spans="2:11">
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="5" t="s">
         <v>526</v>
       </c>
@@ -10519,9 +10541,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="111" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
+    <row r="111" spans="2:11" ht="30">
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="5" t="s">
         <v>527</v>
       </c>
@@ -10532,9 +10554,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="112" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
+    <row r="112" spans="2:11" ht="60">
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="5" t="s">
         <v>534</v>
       </c>
@@ -10545,9 +10567,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
+    <row r="113" spans="2:11">
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="5" t="s">
         <v>537</v>
       </c>
@@ -10561,9 +10583,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
+    <row r="114" spans="2:11">
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="5" t="s">
         <v>541</v>
       </c>
@@ -10577,9 +10599,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="115" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
+    <row r="115" spans="2:11" s="3" customFormat="1">
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="5" t="s">
         <v>125</v>
       </c>
@@ -10594,9 +10616,9 @@
       </c>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
+    <row r="116" spans="2:11" s="3" customFormat="1">
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="5" t="s">
         <v>151</v>
       </c>
@@ -10611,9 +10633,9 @@
       </c>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="8"/>
-      <c r="C117" s="9" t="s">
+    <row r="117" spans="2:11">
+      <c r="B117" s="12"/>
+      <c r="C117" s="13" t="s">
         <v>551</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -10626,9 +10648,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="8"/>
-      <c r="C118" s="9"/>
+    <row r="118" spans="2:11">
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
       <c r="D118" s="5" t="s">
         <v>429</v>
       </c>
@@ -10639,9 +10661,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="8"/>
-      <c r="C119" s="9"/>
+    <row r="119" spans="2:11">
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="5" t="s">
         <v>556</v>
       </c>
@@ -10652,9 +10674,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="8"/>
-      <c r="C120" s="9"/>
+    <row r="120" spans="2:11">
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
       <c r="D120" s="5" t="s">
         <v>559</v>
       </c>
@@ -10665,9 +10687,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="121" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
+    <row r="121" spans="2:11" ht="30">
+      <c r="B121" s="12"/>
+      <c r="C121" s="13"/>
       <c r="D121" s="5" t="s">
         <v>562</v>
       </c>
@@ -10681,9 +10703,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="122" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B122" s="8"/>
-      <c r="C122" s="8" t="s">
+    <row r="122" spans="2:11" ht="30">
+      <c r="B122" s="12"/>
+      <c r="C122" s="12" t="s">
         <v>566</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -10699,9 +10721,9 @@
         <v>618</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
+    <row r="123" spans="2:11">
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="5" t="s">
         <v>429</v>
       </c>
@@ -10715,9 +10737,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="124" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
+    <row r="124" spans="2:11" ht="30">
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
       <c r="D124" s="5" t="s">
         <v>669</v>
       </c>
@@ -10731,9 +10753,9 @@
         <v>672</v>
       </c>
     </row>
-    <row r="125" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
+    <row r="125" spans="2:11" ht="30">
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="5" t="s">
         <v>570</v>
       </c>
@@ -10747,9 +10769,9 @@
         <v>576</v>
       </c>
     </row>
-    <row r="126" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
+    <row r="126" spans="2:11" ht="30">
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="5" t="s">
         <v>572</v>
       </c>
@@ -10763,9 +10785,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="127" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
+    <row r="127" spans="2:11" ht="30">
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="5" t="s">
         <v>574</v>
       </c>
@@ -10779,9 +10801,9 @@
         <v>578</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
+    <row r="128" spans="2:11">
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
       <c r="D128" s="5" t="s">
         <v>590</v>
       </c>
@@ -10795,9 +10817,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
+    <row r="129" spans="2:11" ht="30">
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="5" t="s">
         <v>588</v>
       </c>
@@ -10811,9 +10833,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
+    <row r="130" spans="2:11" ht="30">
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="5" t="s">
         <v>594</v>
       </c>
@@ -10824,9 +10846,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
+    <row r="131" spans="2:11">
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
       <c r="D131" s="5" t="s">
         <v>597</v>
       </c>
@@ -10840,9 +10862,9 @@
         <v>599</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
+    <row r="132" spans="2:11">
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
       <c r="D132" s="5" t="s">
         <v>600</v>
       </c>
@@ -10856,9 +10878,9 @@
         <v>604</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
+    <row r="133" spans="2:11">
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="5" t="s">
         <v>605</v>
       </c>
@@ -10872,9 +10894,9 @@
         <v>608</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
+    <row r="134" spans="2:11" ht="60">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
       <c r="D134" s="5" t="s">
         <v>609</v>
       </c>
@@ -10885,9 +10907,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
+    <row r="135" spans="2:11">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="5" t="s">
         <v>612</v>
       </c>
@@ -10898,9 +10920,9 @@
         <v>614</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
+    <row r="136" spans="2:11">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="5" t="s">
         <v>615</v>
       </c>
@@ -10911,9 +10933,9 @@
         <v>617</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
+    <row r="137" spans="2:11">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="5" t="s">
         <v>619</v>
       </c>
@@ -10927,9 +10949,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
+    <row r="138" spans="2:11">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="5" t="s">
         <v>620</v>
       </c>
@@ -10940,9 +10962,9 @@
         <v>623</v>
       </c>
     </row>
-    <row r="139" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
+    <row r="139" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="5" t="s">
         <v>292</v>
       </c>
@@ -10957,9 +10979,9 @@
       </c>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B140" s="8"/>
-      <c r="C140" s="8" t="s">
+    <row r="140" spans="2:11" ht="30">
+      <c r="B140" s="12"/>
+      <c r="C140" s="12" t="s">
         <v>626</v>
       </c>
       <c r="D140" s="5" t="s">
@@ -10972,9 +10994,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
+    <row r="141" spans="2:11">
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="5" t="s">
         <v>429</v>
       </c>
@@ -10985,9 +11007,9 @@
         <v>650</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
+    <row r="142" spans="2:11">
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
       <c r="D142" s="5" t="s">
         <v>628</v>
       </c>
@@ -10998,9 +11020,9 @@
         <v>633</v>
       </c>
     </row>
-    <row r="143" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
+    <row r="143" spans="2:11" ht="30">
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="5" t="s">
         <v>631</v>
       </c>
@@ -11011,9 +11033,9 @@
         <v>634</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
+    <row r="144" spans="2:11">
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="5" t="s">
         <v>635</v>
       </c>
@@ -11027,9 +11049,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
+    <row r="145" spans="2:11">
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="5" t="s">
         <v>638</v>
       </c>
@@ -11043,9 +11065,9 @@
         <v>641</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
+    <row r="146" spans="2:11" ht="30">
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="5" t="s">
         <v>642</v>
       </c>
@@ -11059,9 +11081,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
+    <row r="147" spans="2:11" ht="75">
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
       <c r="D147" s="5" t="s">
         <v>647</v>
       </c>
@@ -11072,9 +11094,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="148" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
+    <row r="148" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
       <c r="D148" s="5" t="s">
         <v>490</v>
       </c>
@@ -11089,9 +11111,9 @@
       </c>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B149" s="8"/>
-      <c r="C149" s="8" t="s">
+    <row r="149" spans="2:11" ht="30">
+      <c r="B149" s="12"/>
+      <c r="C149" s="12" t="s">
         <v>649</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -11104,9 +11126,9 @@
         <v>651</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
+    <row r="150" spans="2:11">
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="5" t="s">
         <v>429</v>
       </c>
@@ -11117,9 +11139,9 @@
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
+    <row r="151" spans="2:11">
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="5" t="s">
         <v>655</v>
       </c>
@@ -11133,9 +11155,9 @@
         <v>656</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
+    <row r="152" spans="2:11">
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="5" t="s">
         <v>657</v>
       </c>
@@ -11149,9 +11171,9 @@
         <v>659</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
+    <row r="153" spans="2:11" ht="30">
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="5" t="s">
         <v>631</v>
       </c>
@@ -11162,9 +11184,9 @@
         <v>634</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
+    <row r="154" spans="2:11">
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
       <c r="D154" s="5" t="s">
         <v>635</v>
       </c>
@@ -11178,9 +11200,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
+    <row r="155" spans="2:11">
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="5" t="s">
         <v>638</v>
       </c>
@@ -11194,9 +11216,9 @@
         <v>641</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
+    <row r="156" spans="2:11" ht="30">
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
       <c r="D156" s="5" t="s">
         <v>642</v>
       </c>
@@ -11210,9 +11232,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
+    <row r="157" spans="2:11">
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="5" t="s">
         <v>660</v>
       </c>
@@ -11226,9 +11248,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
+    <row r="158" spans="2:11">
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
       <c r="D158" s="5" t="s">
         <v>663</v>
       </c>
@@ -11242,9 +11264,9 @@
         <v>665</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B159" s="8"/>
-      <c r="C159" s="8" t="s">
+    <row r="159" spans="2:11" ht="30">
+      <c r="B159" s="12"/>
+      <c r="C159" s="12" t="s">
         <v>666</v>
       </c>
       <c r="D159" s="5" t="s">
@@ -11257,9 +11279,9 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
+    <row r="160" spans="2:11">
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
       <c r="D160" s="5" t="s">
         <v>429</v>
       </c>
@@ -11270,9 +11292,9 @@
         <v>668</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
+    <row r="161" spans="2:11">
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
       <c r="D161" s="5" t="s">
         <v>673</v>
       </c>
@@ -11286,9 +11308,9 @@
         <v>676</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
+    <row r="162" spans="2:11" ht="45">
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="5" t="s">
         <v>677</v>
       </c>
@@ -11299,9 +11321,9 @@
         <v>679</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
+    <row r="163" spans="2:11">
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
       <c r="D163" s="5" t="s">
         <v>680</v>
       </c>
@@ -11312,9 +11334,9 @@
         <v>682</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
+    <row r="164" spans="2:11">
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
       <c r="D164" s="5" t="s">
         <v>367</v>
       </c>
@@ -11328,9 +11350,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+    <row r="165" spans="2:11">
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="5" t="s">
         <v>371</v>
       </c>
@@ -11341,9 +11363,9 @@
         <v>623</v>
       </c>
     </row>
-    <row r="166" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
+    <row r="166" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
       <c r="D166" s="5" t="s">
         <v>292</v>
       </c>
@@ -11358,9 +11380,9 @@
       </c>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="8"/>
-      <c r="C167" s="8" t="s">
+    <row r="167" spans="2:11" ht="30">
+      <c r="B167" s="12"/>
+      <c r="C167" s="12" t="s">
         <v>683</v>
       </c>
       <c r="D167" s="5" t="s">
@@ -11373,9 +11395,9 @@
         <v>702</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+    <row r="168" spans="2:11">
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
       <c r="D168" s="5" t="s">
         <v>688</v>
       </c>
@@ -11386,9 +11408,9 @@
         <v>690</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
+    <row r="169" spans="2:11">
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="5" t="s">
         <v>691</v>
       </c>
@@ -11399,9 +11421,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="170" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
+    <row r="170" spans="2:11" ht="30">
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
       <c r="D170" s="5" t="s">
         <v>701</v>
       </c>
@@ -11412,9 +11434,9 @@
         <v>704</v>
       </c>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
+    <row r="171" spans="2:11">
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
       <c r="D171" s="5" t="s">
         <v>705</v>
       </c>
@@ -11425,9 +11447,9 @@
         <v>707</v>
       </c>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
+    <row r="172" spans="2:11">
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="5" t="s">
         <v>695</v>
       </c>
@@ -11438,9 +11460,9 @@
         <v>697</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
+    <row r="173" spans="2:11">
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="5" t="s">
         <v>829</v>
       </c>
@@ -11451,9 +11473,9 @@
         <v>697</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
+    <row r="174" spans="2:11">
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="5" t="s">
         <v>698</v>
       </c>
@@ -11464,9 +11486,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
+    <row r="175" spans="2:11">
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="5" t="s">
         <v>292</v>
       </c>
@@ -11481,9 +11503,9 @@
         <v>709</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="8"/>
-      <c r="C176" s="8" t="s">
+    <row r="176" spans="2:11">
+      <c r="B176" s="12"/>
+      <c r="C176" s="12" t="s">
         <v>710</v>
       </c>
       <c r="D176" s="5" t="s">
@@ -11496,9 +11518,9 @@
         <v>711</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
+    <row r="177" spans="2:11">
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="5" t="s">
         <v>712</v>
       </c>
@@ -11509,9 +11531,9 @@
         <v>714</v>
       </c>
     </row>
-    <row r="178" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
+    <row r="178" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="5" t="s">
         <v>292</v>
       </c>
@@ -11526,9 +11548,9 @@
       </c>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B179" s="8"/>
-      <c r="C179" s="8" t="s">
+    <row r="179" spans="2:11" ht="30">
+      <c r="B179" s="12"/>
+      <c r="C179" s="12" t="s">
         <v>716</v>
       </c>
       <c r="D179" s="5" t="s">
@@ -11544,9 +11566,9 @@
         <v>720</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
+    <row r="180" spans="2:11">
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
       <c r="D180" s="5" t="s">
         <v>746</v>
       </c>
@@ -11557,9 +11579,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="181" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
+    <row r="181" spans="2:11" ht="90">
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
       <c r="D181" s="5" t="s">
         <v>721</v>
       </c>
@@ -11573,9 +11595,9 @@
         <v>738</v>
       </c>
     </row>
-    <row r="182" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
+    <row r="182" spans="2:11" ht="90">
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
       <c r="D182" s="5" t="s">
         <v>722</v>
       </c>
@@ -11589,9 +11611,9 @@
         <v>725</v>
       </c>
     </row>
-    <row r="183" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
+    <row r="183" spans="2:11" ht="90">
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
       <c r="D183" s="5" t="s">
         <v>723</v>
       </c>
@@ -11605,9 +11627,9 @@
         <v>753</v>
       </c>
     </row>
-    <row r="184" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
+    <row r="184" spans="2:11" ht="90">
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
       <c r="D184" s="5" t="s">
         <v>729</v>
       </c>
@@ -11621,9 +11643,9 @@
         <v>754</v>
       </c>
     </row>
-    <row r="185" spans="2:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
+    <row r="185" spans="2:11" ht="75">
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
       <c r="D185" s="5" t="s">
         <v>740</v>
       </c>
@@ -11637,9 +11659,9 @@
         <v>742</v>
       </c>
     </row>
-    <row r="186" spans="2:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
+    <row r="186" spans="2:11" ht="75">
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
       <c r="D186" s="5" t="s">
         <v>741</v>
       </c>
@@ -11651,9 +11673,9 @@
         <v>743</v>
       </c>
     </row>
-    <row r="187" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
+    <row r="187" spans="2:11" ht="45">
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
       <c r="D187" s="5" t="s">
         <v>733</v>
       </c>
@@ -11667,9 +11689,9 @@
         <v>736</v>
       </c>
     </row>
-    <row r="188" spans="2:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
+    <row r="188" spans="2:11" ht="75">
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
       <c r="D188" s="5" t="s">
         <v>751</v>
       </c>
@@ -11681,9 +11703,9 @@
         <v>743</v>
       </c>
     </row>
-    <row r="189" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
+    <row r="189" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
       <c r="D189" s="5" t="s">
         <v>292</v>
       </c>
@@ -11698,9 +11720,9 @@
       </c>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B190" s="8"/>
-      <c r="C190" s="8" t="s">
+    <row r="190" spans="2:11" ht="45">
+      <c r="B190" s="12"/>
+      <c r="C190" s="12" t="s">
         <v>749</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -11716,9 +11738,9 @@
         <v>756</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
+    <row r="191" spans="2:11">
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
       <c r="D191" s="5" t="s">
         <v>746</v>
       </c>
@@ -11729,9 +11751,9 @@
         <v>758</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
+    <row r="192" spans="2:11">
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
       <c r="D192" s="5" t="s">
         <v>759</v>
       </c>
@@ -11742,9 +11764,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
+    <row r="193" spans="2:11">
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
       <c r="D193" s="5" t="s">
         <v>762</v>
       </c>
@@ -11755,9 +11777,9 @@
         <v>764</v>
       </c>
     </row>
-    <row r="194" spans="2:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
+    <row r="194" spans="2:11" ht="75">
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
       <c r="D194" s="5" t="s">
         <v>765</v>
       </c>
@@ -11771,9 +11793,9 @@
         <v>848</v>
       </c>
     </row>
-    <row r="195" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
+    <row r="195" spans="2:11" ht="60">
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
       <c r="D195" s="5" t="s">
         <v>767</v>
       </c>
@@ -11787,9 +11809,9 @@
         <v>849</v>
       </c>
     </row>
-    <row r="196" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
+    <row r="196" spans="2:11" ht="60">
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
       <c r="D196" s="5" t="s">
         <v>769</v>
       </c>
@@ -11803,9 +11825,9 @@
         <v>917</v>
       </c>
     </row>
-    <row r="197" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
+    <row r="197" spans="2:11" ht="60">
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
       <c r="D197" s="5" t="s">
         <v>770</v>
       </c>
@@ -11819,9 +11841,9 @@
         <v>918</v>
       </c>
     </row>
-    <row r="198" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
+    <row r="198" spans="2:11" ht="30">
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
       <c r="D198" s="5" t="s">
         <v>771</v>
       </c>
@@ -11833,9 +11855,9 @@
         <v>924</v>
       </c>
     </row>
-    <row r="199" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
+    <row r="199" spans="2:11" ht="60">
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
       <c r="D199" s="5" t="s">
         <v>919</v>
       </c>
@@ -11849,9 +11871,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="200" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
+    <row r="200" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
       <c r="D200" s="5" t="s">
         <v>292</v>
       </c>
@@ -11866,9 +11888,9 @@
       </c>
       <c r="K200" s="6"/>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="8"/>
-      <c r="C201" s="8" t="s">
+    <row r="201" spans="2:11">
+      <c r="B201" s="12"/>
+      <c r="C201" s="12" t="s">
         <v>759</v>
       </c>
       <c r="D201" s="5" t="s">
@@ -11881,9 +11903,9 @@
         <v>776</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
+    <row r="202" spans="2:11">
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
       <c r="D202" s="5" t="s">
         <v>746</v>
       </c>
@@ -11894,9 +11916,9 @@
         <v>777</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
+    <row r="203" spans="2:11">
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
       <c r="D203" s="5" t="s">
         <v>778</v>
       </c>
@@ -11907,9 +11929,9 @@
         <v>780</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
+    <row r="204" spans="2:11">
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
       <c r="D204" s="5" t="s">
         <v>781</v>
       </c>
@@ -11923,9 +11945,9 @@
         <v>783</v>
       </c>
     </row>
-    <row r="205" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B205" s="8"/>
-      <c r="C205" s="8" t="s">
+    <row r="205" spans="2:11" ht="45">
+      <c r="B205" s="12"/>
+      <c r="C205" s="12" t="s">
         <v>762</v>
       </c>
       <c r="D205" s="5" t="s">
@@ -11938,9 +11960,9 @@
         <v>785</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
+    <row r="206" spans="2:11">
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
       <c r="D206" s="5" t="s">
         <v>669</v>
       </c>
@@ -11954,9 +11976,9 @@
         <v>873</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
+    <row r="207" spans="2:11">
+      <c r="B207" s="12"/>
+      <c r="C207" s="12"/>
       <c r="D207" s="5" t="s">
         <v>793</v>
       </c>
@@ -11967,9 +11989,9 @@
         <v>795</v>
       </c>
     </row>
-    <row r="208" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
+    <row r="208" spans="2:11" ht="30">
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
       <c r="D208" s="5" t="s">
         <v>794</v>
       </c>
@@ -11980,9 +12002,9 @@
         <v>787</v>
       </c>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
+    <row r="209" spans="2:11">
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
       <c r="D209" s="5" t="s">
         <v>788</v>
       </c>
@@ -11996,9 +12018,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="210" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
+    <row r="210" spans="2:11" s="3" customFormat="1" ht="45">
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
       <c r="D210" s="5" t="s">
         <v>292</v>
       </c>
@@ -12013,9 +12035,9 @@
       </c>
       <c r="K210" s="6"/>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
+    <row r="211" spans="2:11">
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
       <c r="D211" s="5" t="s">
         <v>789</v>
       </c>
@@ -12026,9 +12048,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="212" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="8"/>
-      <c r="C212" s="8" t="s">
+    <row r="212" spans="2:11" ht="30">
+      <c r="B212" s="12"/>
+      <c r="C212" s="12" t="s">
         <v>796</v>
       </c>
       <c r="D212" s="5" t="s">
@@ -12041,9 +12063,9 @@
         <v>797</v>
       </c>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
+    <row r="213" spans="2:11">
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="5" t="s">
         <v>746</v>
       </c>
@@ -12054,9 +12076,9 @@
         <v>799</v>
       </c>
     </row>
-    <row r="214" spans="2:11" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
+    <row r="214" spans="2:11" ht="105">
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
       <c r="D214" s="5" t="s">
         <v>798</v>
       </c>
@@ -12067,9 +12089,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
+    <row r="215" spans="2:11">
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
       <c r="D215" s="5" t="s">
         <v>818</v>
       </c>
@@ -12080,9 +12102,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="216" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
+    <row r="216" spans="2:11" ht="30">
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="5" t="s">
         <v>800</v>
       </c>
@@ -12093,9 +12115,9 @@
         <v>802</v>
       </c>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
+    <row r="217" spans="2:11">
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
       <c r="D217" s="5" t="s">
         <v>813</v>
       </c>
@@ -12106,9 +12128,9 @@
         <v>808</v>
       </c>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
+    <row r="218" spans="2:11">
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
       <c r="D218" s="5" t="s">
         <v>815</v>
       </c>
@@ -12119,9 +12141,9 @@
         <v>817</v>
       </c>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
+    <row r="219" spans="2:11">
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
       <c r="D219" s="5" t="s">
         <v>803</v>
       </c>
@@ -12132,9 +12154,9 @@
         <v>808</v>
       </c>
     </row>
-    <row r="220" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
+    <row r="220" spans="2:11" ht="30">
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
       <c r="D220" t="s">
         <v>806</v>
       </c>
@@ -12148,9 +12170,9 @@
         <v>810</v>
       </c>
     </row>
-    <row r="221" spans="2:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
+    <row r="221" spans="2:11" ht="90">
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
       <c r="D221" s="2" t="s">
         <v>40</v>
       </c>
@@ -12164,9 +12186,9 @@
         <v>811</v>
       </c>
     </row>
-    <row r="222" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
+    <row r="222" spans="2:11" s="3" customFormat="1" ht="30">
+      <c r="B222" s="12"/>
+      <c r="C222" s="12"/>
       <c r="D222" s="5" t="s">
         <v>77</v>
       </c>
@@ -12181,9 +12203,9 @@
       </c>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
+    <row r="223" spans="2:11">
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
       <c r="D223" s="2" t="s">
         <v>67</v>
       </c>
@@ -12194,9 +12216,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
+    <row r="224" spans="2:11">
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
       <c r="D224" s="2" t="s">
         <v>70</v>
       </c>
@@ -12207,9 +12229,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="225" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
+    <row r="225" spans="2:8" ht="30">
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
       <c r="D225" s="2" t="s">
         <v>73</v>
       </c>
@@ -12220,9 +12242,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="226" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
+    <row r="226" spans="2:8" ht="30">
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
       <c r="D226" s="2" t="s">
         <v>75</v>
       </c>
@@ -12233,9 +12255,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="227" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
+    <row r="227" spans="2:8" ht="30">
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
       <c r="D227" s="5" t="s">
         <v>820</v>
       </c>
@@ -12249,9 +12271,9 @@
         <v>822</v>
       </c>
     </row>
-    <row r="228" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B228" s="8"/>
-      <c r="C228" s="8" t="s">
+    <row r="228" spans="2:8" ht="45">
+      <c r="B228" s="12"/>
+      <c r="C228" s="12" t="s">
         <v>823</v>
       </c>
       <c r="D228" s="5" t="s">
@@ -12264,9 +12286,9 @@
         <v>835</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
+    <row r="229" spans="2:8" ht="45">
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
       <c r="D229" s="5" t="s">
         <v>826</v>
       </c>
@@ -12277,9 +12299,9 @@
         <v>828</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
+    <row r="230" spans="2:8">
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
       <c r="D230" t="s">
         <v>37</v>
       </c>
@@ -12290,9 +12312,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
+    <row r="231" spans="2:8">
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
       <c r="D231" t="s">
         <v>34</v>
       </c>
@@ -12303,9 +12325,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="232" spans="2:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
+    <row r="232" spans="2:8" ht="75">
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
       <c r="D232" t="s">
         <v>41</v>
       </c>
@@ -12316,9 +12338,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="233" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
+    <row r="233" spans="2:8" ht="30">
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
       <c r="D233" t="s">
         <v>44</v>
       </c>
@@ -12329,9 +12351,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+    <row r="234" spans="2:8">
+      <c r="B234" s="12"/>
+      <c r="C234" s="12"/>
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -12342,9 +12364,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="2:8" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
+    <row r="235" spans="2:8" ht="90">
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
       <c r="D235" t="s">
         <v>51</v>
       </c>
@@ -12355,9 +12377,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
+    <row r="236" spans="2:8">
+      <c r="B236" s="12"/>
+      <c r="C236" s="12"/>
       <c r="D236" t="s">
         <v>54</v>
       </c>
@@ -12368,9 +12390,9 @@
         <v>832</v>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
+    <row r="237" spans="2:8" ht="30">
+      <c r="B237" s="12"/>
+      <c r="C237" s="12"/>
       <c r="D237" t="s">
         <v>55</v>
       </c>
@@ -12381,9 +12403,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
+    <row r="238" spans="2:8" ht="30">
+      <c r="B238" s="12"/>
+      <c r="C238" s="12"/>
       <c r="D238" s="2" t="s">
         <v>836</v>
       </c>
@@ -12397,9 +12419,9 @@
         <v>837</v>
       </c>
     </row>
-    <row r="239" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
+    <row r="239" spans="2:8" ht="30">
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
       <c r="D239" s="2" t="s">
         <v>842</v>
       </c>
@@ -12411,9 +12433,9 @@
         <v>844</v>
       </c>
     </row>
-    <row r="240" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
+    <row r="240" spans="2:8" ht="60">
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
       <c r="D240" t="s">
         <v>838</v>
       </c>
@@ -12424,9 +12446,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="241" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
+    <row r="241" spans="2:8" ht="30">
+      <c r="B241" s="12"/>
+      <c r="C241" s="12"/>
       <c r="D241" s="5" t="s">
         <v>820</v>
       </c>
@@ -12442,6 +12464,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C122:C139"/>
+    <mergeCell ref="C140:C148"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="C159:C166"/>
     <mergeCell ref="C3:C32"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B3:B241"/>
@@ -12458,11 +12485,6 @@
     <mergeCell ref="C103:C116"/>
     <mergeCell ref="C167:C175"/>
     <mergeCell ref="C176:C178"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C122:C139"/>
-    <mergeCell ref="C140:C148"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="C159:C166"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -12470,45 +12492,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L287"/>
   <sheetViews>
     <sheetView topLeftCell="A275" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="H286" sqref="H286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="49.19921875" customWidth="1"/>
-    <col min="8" max="8" width="51.09765625" customWidth="1"/>
+    <col min="7" max="7" width="49.1640625" customWidth="1"/>
+    <col min="8" max="8" width="51.1640625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="18.796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21.69921875" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="28">
+      <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="23">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -12546,11 +12568,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:12" ht="45">
+      <c r="B3" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>847</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -12566,9 +12588,9 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:12" ht="120">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2" t="s">
         <v>214</v>
       </c>
@@ -12582,9 +12604,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:12">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2" t="s">
         <v>684</v>
       </c>
@@ -12596,9 +12618,9 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:12" ht="30">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
         <v>851</v>
       </c>
@@ -12609,8 +12631,8 @@
         <v>857</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:12" ht="30">
+      <c r="C7" s="12"/>
       <c r="D7" s="2" t="s">
         <v>852</v>
       </c>
@@ -12621,8 +12643,8 @@
         <v>858</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
+    <row r="8" spans="1:12">
+      <c r="C8" s="12"/>
       <c r="D8" s="2" t="s">
         <v>853</v>
       </c>
@@ -12633,8 +12655,8 @@
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
+    <row r="9" spans="1:12">
+      <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
         <v>855</v>
       </c>
@@ -12645,8 +12667,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:12" ht="45">
+      <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
         <v>861</v>
       </c>
@@ -12660,8 +12682,8 @@
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
+    <row r="11" spans="1:12" ht="60">
+      <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
         <v>864</v>
       </c>
@@ -12675,8 +12697,8 @@
         <v>868</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:12" ht="30">
+      <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
         <v>869</v>
       </c>
@@ -12690,8 +12712,8 @@
         <v>949</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
+    <row r="13" spans="1:12">
+      <c r="C13" s="12"/>
       <c r="D13" s="2" t="s">
         <v>875</v>
       </c>
@@ -12702,8 +12724,8 @@
         <v>876</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
+    <row r="14" spans="1:12" ht="30">
+      <c r="C14" s="12"/>
       <c r="D14" s="2" t="s">
         <v>877</v>
       </c>
@@ -12714,8 +12736,8 @@
         <v>881</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
+    <row r="15" spans="1:12" ht="45">
+      <c r="C15" s="12"/>
       <c r="D15" s="2" t="s">
         <v>882</v>
       </c>
@@ -12729,8 +12751,8 @@
         <v>909</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
+    <row r="16" spans="1:12" ht="45">
+      <c r="C16" s="12"/>
       <c r="D16" s="2" t="s">
         <v>884</v>
       </c>
@@ -12744,8 +12766,8 @@
         <v>909</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
+    <row r="17" spans="3:8">
+      <c r="C17" s="12"/>
       <c r="D17" s="2" t="s">
         <v>886</v>
       </c>
@@ -12759,8 +12781,8 @@
         <v>889</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
+    <row r="18" spans="3:8" ht="30">
+      <c r="C18" s="12"/>
       <c r="D18" s="2" t="s">
         <v>890</v>
       </c>
@@ -12774,8 +12796,8 @@
         <v>893</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
+    <row r="19" spans="3:8">
+      <c r="C19" s="12"/>
       <c r="D19" s="5" t="s">
         <v>894</v>
       </c>
@@ -12789,8 +12811,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
+    <row r="20" spans="3:8">
+      <c r="C20" s="12"/>
       <c r="D20" s="5" t="s">
         <v>895</v>
       </c>
@@ -12801,8 +12823,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
+    <row r="21" spans="3:8">
+      <c r="C21" s="12"/>
       <c r="D21" s="5" t="s">
         <v>899</v>
       </c>
@@ -12813,8 +12835,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
+    <row r="22" spans="3:8">
+      <c r="C22" s="12"/>
       <c r="D22" s="5" t="s">
         <v>901</v>
       </c>
@@ -12825,8 +12847,8 @@
         <v>903</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
+    <row r="23" spans="3:8" ht="45">
+      <c r="C23" s="12"/>
       <c r="D23" s="5" t="s">
         <v>904</v>
       </c>
@@ -12840,8 +12862,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C24" s="8" t="s">
+    <row r="24" spans="3:8" ht="45">
+      <c r="C24" s="12" t="s">
         <v>911</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -12854,8 +12876,8 @@
         <v>950</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
+    <row r="25" spans="3:8" ht="30">
+      <c r="C25" s="12"/>
       <c r="D25" s="2" t="s">
         <v>851</v>
       </c>
@@ -12866,8 +12888,8 @@
         <v>857</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
+    <row r="26" spans="3:8" ht="30">
+      <c r="C26" s="12"/>
       <c r="D26" s="2" t="s">
         <v>852</v>
       </c>
@@ -12878,8 +12900,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
+    <row r="27" spans="3:8">
+      <c r="C27" s="12"/>
       <c r="D27" s="2" t="s">
         <v>929</v>
       </c>
@@ -12890,8 +12912,8 @@
         <v>931</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
+    <row r="28" spans="3:8">
+      <c r="C28" s="12"/>
       <c r="D28" s="2" t="s">
         <v>932</v>
       </c>
@@ -12902,8 +12924,8 @@
         <v>934</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
+    <row r="29" spans="3:8" ht="30">
+      <c r="C29" s="12"/>
       <c r="D29" s="2" t="s">
         <v>935</v>
       </c>
@@ -12917,8 +12939,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C30" s="8"/>
+    <row r="30" spans="3:8" ht="30">
+      <c r="C30" s="12"/>
       <c r="D30" s="2" t="s">
         <v>939</v>
       </c>
@@ -12932,8 +12954,8 @@
         <v>942</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
+    <row r="31" spans="3:8" ht="30">
+      <c r="C31" s="12"/>
       <c r="D31" s="2" t="s">
         <v>877</v>
       </c>
@@ -12944,8 +12966,8 @@
         <v>881</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
+    <row r="32" spans="3:8" ht="45">
+      <c r="C32" s="12"/>
       <c r="D32" s="2" t="s">
         <v>882</v>
       </c>
@@ -12959,8 +12981,8 @@
         <v>909</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
+    <row r="33" spans="3:8" ht="45">
+      <c r="C33" s="12"/>
       <c r="D33" s="2" t="s">
         <v>884</v>
       </c>
@@ -12974,8 +12996,8 @@
         <v>909</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
+    <row r="34" spans="3:8">
+      <c r="C34" s="12"/>
       <c r="D34" s="2" t="s">
         <v>886</v>
       </c>
@@ -12989,8 +13011,8 @@
         <v>889</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
+    <row r="35" spans="3:8" ht="30">
+      <c r="C35" s="12"/>
       <c r="D35" s="2" t="s">
         <v>890</v>
       </c>
@@ -13004,8 +13026,8 @@
         <v>893</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
+    <row r="36" spans="3:8">
+      <c r="C36" s="12"/>
       <c r="D36" s="2" t="s">
         <v>943</v>
       </c>
@@ -13016,8 +13038,8 @@
         <v>889</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
+    <row r="37" spans="3:8">
+      <c r="C37" s="12"/>
       <c r="D37" s="2" t="s">
         <v>945</v>
       </c>
@@ -13028,8 +13050,8 @@
         <v>947</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
+    <row r="38" spans="3:8" ht="45">
+      <c r="C38" s="12"/>
       <c r="D38" s="5" t="s">
         <v>904</v>
       </c>
@@ -13043,8 +13065,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="8" t="s">
+    <row r="39" spans="3:8">
+      <c r="C39" s="12" t="s">
         <v>948</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -13057,8 +13079,8 @@
         <v>953</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C40" s="8"/>
+    <row r="40" spans="3:8" ht="45">
+      <c r="C40" s="12"/>
       <c r="D40" s="5" t="s">
         <v>945</v>
       </c>
@@ -13069,8 +13091,8 @@
         <v>955</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C41" s="8"/>
+    <row r="41" spans="3:8" ht="30">
+      <c r="C41" s="12"/>
       <c r="D41" s="5" t="s">
         <v>956</v>
       </c>
@@ -13084,8 +13106,8 @@
         <v>958</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C42" s="8"/>
+    <row r="42" spans="3:8" ht="30">
+      <c r="C42" s="12"/>
       <c r="D42" s="5" t="s">
         <v>959</v>
       </c>
@@ -13099,8 +13121,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C43" s="8"/>
+    <row r="43" spans="3:8" ht="60">
+      <c r="C43" s="12"/>
       <c r="D43" s="5" t="s">
         <v>963</v>
       </c>
@@ -13111,8 +13133,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="8"/>
+    <row r="44" spans="3:8">
+      <c r="C44" s="12"/>
       <c r="D44" s="5" t="s">
         <v>967</v>
       </c>
@@ -13123,8 +13145,8 @@
         <v>969</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="8"/>
+    <row r="45" spans="3:8">
+      <c r="C45" s="12"/>
       <c r="D45" s="5" t="s">
         <v>970</v>
       </c>
@@ -13138,8 +13160,8 @@
         <v>972</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="8"/>
+    <row r="46" spans="3:8">
+      <c r="C46" s="12"/>
       <c r="D46" s="5" t="s">
         <v>973</v>
       </c>
@@ -13153,8 +13175,8 @@
         <v>977</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C47" s="8"/>
+    <row r="47" spans="3:8" ht="30">
+      <c r="C47" s="12"/>
       <c r="D47" s="5" t="s">
         <v>978</v>
       </c>
@@ -13168,8 +13190,8 @@
         <v>980</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="C48" s="8"/>
+    <row r="48" spans="3:8" ht="75">
+      <c r="C48" s="12"/>
       <c r="D48" s="5" t="s">
         <v>982</v>
       </c>
@@ -13183,8 +13205,8 @@
         <v>988</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="C49" s="8"/>
+    <row r="49" spans="3:8" ht="75">
+      <c r="C49" s="12"/>
       <c r="D49" s="5" t="s">
         <v>989</v>
       </c>
@@ -13198,8 +13220,8 @@
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C50" s="8"/>
+    <row r="50" spans="3:8" ht="30">
+      <c r="C50" s="12"/>
       <c r="D50" s="5" t="s">
         <v>990</v>
       </c>
@@ -13213,8 +13235,8 @@
         <v>987</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C51" s="8"/>
+    <row r="51" spans="3:8" ht="30">
+      <c r="C51" s="12"/>
       <c r="D51" s="5" t="s">
         <v>991</v>
       </c>
@@ -13228,8 +13250,8 @@
         <v>992</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="C52" s="8"/>
+    <row r="52" spans="3:8" ht="105">
+      <c r="C52" s="12"/>
       <c r="D52" s="5" t="s">
         <v>993</v>
       </c>
@@ -13243,8 +13265,8 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="C53" s="8"/>
+    <row r="53" spans="3:8" ht="75">
+      <c r="C53" s="12"/>
       <c r="D53" s="5" t="s">
         <v>995</v>
       </c>
@@ -13258,8 +13280,8 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="C54" s="8"/>
+    <row r="54" spans="3:8" ht="75">
+      <c r="C54" s="12"/>
       <c r="D54" s="5" t="s">
         <v>996</v>
       </c>
@@ -13273,8 +13295,8 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C55" s="8"/>
+    <row r="55" spans="3:8" ht="30">
+      <c r="C55" s="12"/>
       <c r="D55" s="5" t="s">
         <v>1035</v>
       </c>
@@ -13288,8 +13310,8 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C56" s="8"/>
+    <row r="56" spans="3:8" ht="30">
+      <c r="C56" s="12"/>
       <c r="D56" s="2" t="s">
         <v>890</v>
       </c>
@@ -13303,8 +13325,8 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C57" s="8"/>
+    <row r="57" spans="3:8" ht="45">
+      <c r="C57" s="12"/>
       <c r="D57" s="5" t="s">
         <v>904</v>
       </c>
@@ -13318,8 +13340,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C58" s="10" t="s">
+    <row r="58" spans="3:8" ht="30">
+      <c r="C58" s="14" t="s">
         <v>1003</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -13332,8 +13354,8 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="10"/>
+    <row r="59" spans="3:8">
+      <c r="C59" s="14"/>
       <c r="D59" s="5" t="s">
         <v>1007</v>
       </c>
@@ -13347,8 +13369,8 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="10"/>
+    <row r="60" spans="3:8">
+      <c r="C60" s="14"/>
       <c r="D60" s="5" t="s">
         <v>1013</v>
       </c>
@@ -13359,8 +13381,8 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="10"/>
+    <row r="61" spans="3:8">
+      <c r="C61" s="14"/>
       <c r="D61" s="5" t="s">
         <v>1014</v>
       </c>
@@ -13371,8 +13393,8 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C62" s="10"/>
+    <row r="62" spans="3:8" ht="45">
+      <c r="C62" s="14"/>
       <c r="D62" s="5" t="s">
         <v>904</v>
       </c>
@@ -13386,8 +13408,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C63" s="10" t="s">
+    <row r="63" spans="3:8" ht="30">
+      <c r="C63" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -13400,8 +13422,8 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="10"/>
+    <row r="64" spans="3:8">
+      <c r="C64" s="14"/>
       <c r="D64" s="5" t="s">
         <v>1025</v>
       </c>
@@ -13415,8 +13437,8 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="10"/>
+    <row r="65" spans="3:8">
+      <c r="C65" s="14"/>
       <c r="D65" s="5" t="s">
         <v>1013</v>
       </c>
@@ -13427,8 +13449,8 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="10"/>
+    <row r="66" spans="3:8">
+      <c r="C66" s="14"/>
       <c r="D66" s="5" t="s">
         <v>1014</v>
       </c>
@@ -13439,8 +13461,8 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C67" s="10"/>
+    <row r="67" spans="3:8" ht="45">
+      <c r="C67" s="14"/>
       <c r="D67" s="5" t="s">
         <v>904</v>
       </c>
@@ -13454,8 +13476,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="68" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C68" s="10" t="s">
+    <row r="68" spans="3:8" ht="30">
+      <c r="C68" s="14" t="s">
         <v>1043</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -13468,8 +13490,8 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C69" s="10"/>
+    <row r="69" spans="3:8" ht="30">
+      <c r="C69" s="14"/>
       <c r="D69" s="5" t="s">
         <v>1031</v>
       </c>
@@ -13483,8 +13505,8 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C70" s="10"/>
+    <row r="70" spans="3:8" ht="45">
+      <c r="C70" s="14"/>
       <c r="D70" s="5" t="s">
         <v>1034</v>
       </c>
@@ -13495,8 +13517,8 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="10"/>
+    <row r="71" spans="3:8">
+      <c r="C71" s="14"/>
       <c r="D71" s="5" t="s">
         <v>1041</v>
       </c>
@@ -13510,8 +13532,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="72" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C72" s="10"/>
+    <row r="72" spans="3:8" ht="45">
+      <c r="C72" s="14"/>
       <c r="D72" s="5" t="s">
         <v>904</v>
       </c>
@@ -13525,8 +13547,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C73" s="10" t="s">
+    <row r="73" spans="3:8" ht="30">
+      <c r="C73" s="14" t="s">
         <v>1044</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -13539,8 +13561,8 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="10"/>
+    <row r="74" spans="3:8">
+      <c r="C74" s="14"/>
       <c r="D74" s="5" t="s">
         <v>1046</v>
       </c>
@@ -13554,8 +13576,8 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C75" s="10"/>
+    <row r="75" spans="3:8" ht="30">
+      <c r="C75" s="14"/>
       <c r="D75" s="5" t="s">
         <v>1047</v>
       </c>
@@ -13567,8 +13589,8 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C76" s="10"/>
+    <row r="76" spans="3:8">
+      <c r="C76" s="14"/>
       <c r="D76" s="5" t="s">
         <v>1013</v>
       </c>
@@ -13579,8 +13601,8 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="10"/>
+    <row r="77" spans="3:8">
+      <c r="C77" s="14"/>
       <c r="D77" s="5" t="s">
         <v>1014</v>
       </c>
@@ -13591,8 +13613,8 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="78" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C78" s="10"/>
+    <row r="78" spans="3:8" ht="45">
+      <c r="C78" s="14"/>
       <c r="D78" s="5" t="s">
         <v>904</v>
       </c>
@@ -13606,8 +13628,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C79" s="8" t="s">
+    <row r="79" spans="3:8" ht="60">
+      <c r="C79" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -13623,8 +13645,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="C80" s="8"/>
+    <row r="80" spans="3:8" ht="120">
+      <c r="C80" s="12"/>
       <c r="D80" s="2" t="s">
         <v>214</v>
       </c>
@@ -13638,8 +13660,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="8"/>
+    <row r="81" spans="2:11">
+      <c r="C81" s="12"/>
       <c r="D81" s="2" t="s">
         <v>684</v>
       </c>
@@ -13651,8 +13673,8 @@
         <v>686</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="156" x14ac:dyDescent="0.25">
-      <c r="C82" s="8"/>
+    <row r="82" spans="2:11" ht="150">
+      <c r="C82" s="12"/>
       <c r="D82" s="2" t="s">
         <v>225</v>
       </c>
@@ -13666,8 +13688,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="156" x14ac:dyDescent="0.25">
-      <c r="C83" s="8"/>
+    <row r="83" spans="2:11" ht="150">
+      <c r="C83" s="12"/>
       <c r="D83" s="2" t="s">
         <v>226</v>
       </c>
@@ -13681,8 +13703,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="156" x14ac:dyDescent="0.25">
-      <c r="C84" s="8"/>
+    <row r="84" spans="2:11" ht="150">
+      <c r="C84" s="12"/>
       <c r="D84" s="2" t="s">
         <v>230</v>
       </c>
@@ -13696,8 +13718,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="C85" s="8"/>
+    <row r="85" spans="2:11" ht="120">
+      <c r="C85" s="12"/>
       <c r="D85" s="2" t="s">
         <v>233</v>
       </c>
@@ -13711,8 +13733,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C86" s="8"/>
+    <row r="86" spans="2:11" ht="30">
+      <c r="C86" s="12"/>
       <c r="D86" s="2" t="s">
         <v>236</v>
       </c>
@@ -13726,8 +13748,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C87" s="8"/>
+    <row r="87" spans="2:11" ht="45">
+      <c r="C87" s="12"/>
       <c r="D87" s="2" t="s">
         <v>224</v>
       </c>
@@ -13741,8 +13763,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C88" s="8"/>
+    <row r="88" spans="2:11" ht="30">
+      <c r="C88" s="12"/>
       <c r="D88" s="2" t="s">
         <v>242</v>
       </c>
@@ -13753,8 +13775,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="8"/>
+    <row r="89" spans="2:11">
+      <c r="C89" s="12"/>
       <c r="D89" s="2" t="s">
         <v>244</v>
       </c>
@@ -13765,8 +13787,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C90" s="8"/>
+    <row r="90" spans="2:11" ht="30">
+      <c r="C90" s="12"/>
       <c r="D90" s="2" t="s">
         <v>248</v>
       </c>
@@ -13777,8 +13799,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C91" s="8"/>
+    <row r="91" spans="2:11">
+      <c r="C91" s="12"/>
       <c r="D91" s="2" t="s">
         <v>251</v>
       </c>
@@ -13792,8 +13814,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C92" s="8"/>
+    <row r="92" spans="2:11" ht="30">
+      <c r="C92" s="12"/>
       <c r="D92" s="2" t="s">
         <v>255</v>
       </c>
@@ -13804,8 +13826,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C93" s="8"/>
+    <row r="93" spans="2:11" ht="30">
+      <c r="C93" s="12"/>
       <c r="D93" s="2" t="s">
         <v>914</v>
       </c>
@@ -13816,8 +13838,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C94" s="8"/>
+    <row r="94" spans="2:11" ht="30">
+      <c r="C94" s="12"/>
       <c r="D94" s="2" t="s">
         <v>260</v>
       </c>
@@ -13828,9 +13850,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="95" spans="2:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" s="3" customFormat="1" ht="30">
       <c r="B95"/>
-      <c r="C95" s="8"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="5" t="s">
         <v>493</v>
       </c>
@@ -13842,8 +13864,8 @@
       </c>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C96" s="8"/>
+    <row r="96" spans="2:11">
+      <c r="C96" s="12"/>
       <c r="D96" s="2" t="s">
         <v>265</v>
       </c>
@@ -13854,8 +13876,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C97" s="8"/>
+    <row r="97" spans="2:11" ht="30">
+      <c r="C97" s="12"/>
       <c r="D97" s="2" t="s">
         <v>278</v>
       </c>
@@ -13869,8 +13891,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C98" s="8"/>
+    <row r="98" spans="2:11" ht="30">
+      <c r="C98" s="12"/>
       <c r="D98" s="2" t="s">
         <v>275</v>
       </c>
@@ -13884,8 +13906,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C99" s="8"/>
+    <row r="99" spans="2:11">
+      <c r="C99" s="12"/>
       <c r="D99" s="2" t="s">
         <v>271</v>
       </c>
@@ -13896,8 +13918,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C100" s="8"/>
+    <row r="100" spans="2:11" ht="30">
+      <c r="C100" s="12"/>
       <c r="D100" s="2" t="s">
         <v>498</v>
       </c>
@@ -13911,8 +13933,8 @@
         <v>497</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C101" s="8"/>
+    <row r="101" spans="2:11">
+      <c r="C101" s="12"/>
       <c r="D101" s="2" t="s">
         <v>280</v>
       </c>
@@ -13923,8 +13945,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C102" s="8"/>
+    <row r="102" spans="2:11">
+      <c r="C102" s="12"/>
       <c r="D102" s="2" t="s">
         <v>284</v>
       </c>
@@ -13938,8 +13960,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C103" s="8"/>
+    <row r="103" spans="2:11">
+      <c r="C103" s="12"/>
       <c r="D103" s="2" t="s">
         <v>285</v>
       </c>
@@ -13953,8 +13975,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C104" s="8"/>
+    <row r="104" spans="2:11">
+      <c r="C104" s="12"/>
       <c r="D104" s="2" t="s">
         <v>288</v>
       </c>
@@ -13965,8 +13987,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C105" s="8"/>
+    <row r="105" spans="2:11">
+      <c r="C105" s="12"/>
       <c r="D105" s="2" t="s">
         <v>337</v>
       </c>
@@ -13977,8 +13999,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C106" s="8"/>
+    <row r="106" spans="2:11">
+      <c r="C106" s="12"/>
       <c r="D106" s="2" t="s">
         <v>339</v>
       </c>
@@ -13989,9 +14011,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="107" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" s="3" customFormat="1" ht="45">
       <c r="B107"/>
-      <c r="C107" s="8"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="5" t="s">
         <v>151</v>
       </c>
@@ -14006,9 +14028,9 @@
       </c>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" s="3" customFormat="1">
       <c r="B108"/>
-      <c r="C108" s="8"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="5" t="s">
         <v>292</v>
       </c>
@@ -14023,8 +14045,8 @@
       </c>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C109" s="8" t="s">
+    <row r="109" spans="2:11" ht="30">
+      <c r="C109" s="12" t="s">
         <v>297</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -14037,8 +14059,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C110" s="8"/>
+    <row r="110" spans="2:11">
+      <c r="C110" s="12"/>
       <c r="D110" s="5" t="s">
         <v>106</v>
       </c>
@@ -14049,8 +14071,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C111" s="8"/>
+    <row r="111" spans="2:11" ht="45">
+      <c r="C111" s="12"/>
       <c r="D111" s="5" t="s">
         <v>304</v>
       </c>
@@ -14061,8 +14083,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="112" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C112" s="8"/>
+    <row r="112" spans="2:11" ht="45">
+      <c r="C112" s="12"/>
       <c r="D112" s="5" t="s">
         <v>306</v>
       </c>
@@ -14073,8 +14095,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C113" s="8"/>
+    <row r="113" spans="3:8" ht="30">
+      <c r="C113" s="12"/>
       <c r="D113" s="5" t="s">
         <v>499</v>
       </c>
@@ -14088,8 +14110,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C114" s="8"/>
+    <row r="114" spans="3:8" ht="30">
+      <c r="C114" s="12"/>
       <c r="D114" s="5" t="s">
         <v>312</v>
       </c>
@@ -14103,8 +14125,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C115" s="8"/>
+    <row r="115" spans="3:8" ht="30">
+      <c r="C115" s="12"/>
       <c r="D115" s="5" t="s">
         <v>315</v>
       </c>
@@ -14118,8 +14140,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C116" s="8"/>
+    <row r="116" spans="3:8">
+      <c r="C116" s="12"/>
       <c r="D116" s="5" t="s">
         <v>320</v>
       </c>
@@ -14133,8 +14155,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C117" s="8"/>
+    <row r="117" spans="3:8" ht="30">
+      <c r="C117" s="12"/>
       <c r="D117" s="5" t="s">
         <v>323</v>
       </c>
@@ -14148,8 +14170,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C118" s="8"/>
+    <row r="118" spans="3:8">
+      <c r="C118" s="12"/>
       <c r="D118" s="5" t="s">
         <v>326</v>
       </c>
@@ -14163,8 +14185,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C119" s="8"/>
+    <row r="119" spans="3:8" ht="30">
+      <c r="C119" s="12"/>
       <c r="D119" s="5" t="s">
         <v>327</v>
       </c>
@@ -14178,8 +14200,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C120" s="8"/>
+    <row r="120" spans="3:8">
+      <c r="C120" s="12"/>
       <c r="D120" s="5" t="s">
         <v>333</v>
       </c>
@@ -14193,8 +14215,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C121" s="8"/>
+    <row r="121" spans="3:8">
+      <c r="C121" s="12"/>
       <c r="D121" s="5" t="s">
         <v>341</v>
       </c>
@@ -14205,8 +14227,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="8"/>
+    <row r="122" spans="3:8">
+      <c r="C122" s="12"/>
       <c r="D122" s="5" t="s">
         <v>344</v>
       </c>
@@ -14217,8 +14239,8 @@
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C123" s="8"/>
+    <row r="123" spans="3:8" ht="30">
+      <c r="C123" s="12"/>
       <c r="D123" s="5" t="s">
         <v>357</v>
       </c>
@@ -14232,8 +14254,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C124" s="8"/>
+    <row r="124" spans="3:8" ht="30">
+      <c r="C124" s="12"/>
       <c r="D124" s="5" t="s">
         <v>358</v>
       </c>
@@ -14247,8 +14269,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="8"/>
+    <row r="125" spans="3:8">
+      <c r="C125" s="12"/>
       <c r="D125" s="5" t="s">
         <v>348</v>
       </c>
@@ -14259,8 +14281,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C126" s="8"/>
+    <row r="126" spans="3:8">
+      <c r="C126" s="12"/>
       <c r="D126" s="5" t="s">
         <v>351</v>
       </c>
@@ -14271,8 +14293,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C127" s="8"/>
+    <row r="127" spans="3:8">
+      <c r="C127" s="12"/>
       <c r="D127" s="5" t="s">
         <v>354</v>
       </c>
@@ -14283,8 +14305,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C128" s="8"/>
+    <row r="128" spans="3:8">
+      <c r="C128" s="12"/>
       <c r="D128" s="5" t="s">
         <v>363</v>
       </c>
@@ -14298,8 +14320,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C129" s="8"/>
+    <row r="129" spans="2:11">
+      <c r="C129" s="12"/>
       <c r="D129" s="5" t="s">
         <v>367</v>
       </c>
@@ -14313,8 +14335,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C130" s="8"/>
+    <row r="130" spans="2:11">
+      <c r="C130" s="12"/>
       <c r="D130" s="5" t="s">
         <v>371</v>
       </c>
@@ -14325,8 +14347,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C131" s="8"/>
+    <row r="131" spans="2:11">
+      <c r="C131" s="12"/>
       <c r="D131" s="5" t="s">
         <v>373</v>
       </c>
@@ -14337,9 +14359,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="132" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" s="3" customFormat="1" ht="45">
       <c r="B132"/>
-      <c r="C132" s="8"/>
+      <c r="C132" s="12"/>
       <c r="D132" s="5" t="s">
         <v>151</v>
       </c>
@@ -14354,9 +14376,9 @@
       </c>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" s="3" customFormat="1">
       <c r="B133"/>
-      <c r="C133" s="8"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="5" t="s">
         <v>292</v>
       </c>
@@ -14371,8 +14393,8 @@
       </c>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C134" s="8" t="s">
+    <row r="134" spans="2:11" ht="45">
+      <c r="C134" s="12" t="s">
         <v>1050</v>
       </c>
       <c r="D134" s="5" t="s">
@@ -14388,8 +14410,8 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C135" s="8"/>
+    <row r="135" spans="2:11">
+      <c r="C135" s="12"/>
       <c r="D135" s="5" t="s">
         <v>1053</v>
       </c>
@@ -14403,8 +14425,8 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C136" s="8"/>
+    <row r="136" spans="2:11">
+      <c r="C136" s="12"/>
       <c r="D136" s="5" t="s">
         <v>1057</v>
       </c>
@@ -14418,8 +14440,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C137" s="8"/>
+    <row r="137" spans="2:11">
+      <c r="C137" s="12"/>
       <c r="D137" s="5" t="s">
         <v>1061</v>
       </c>
@@ -14433,8 +14455,8 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C138" s="8"/>
+    <row r="138" spans="2:11">
+      <c r="C138" s="12"/>
       <c r="D138" s="5" t="s">
         <v>1064</v>
       </c>
@@ -14448,8 +14470,8 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C139" s="8"/>
+    <row r="139" spans="2:11">
+      <c r="C139" s="12"/>
       <c r="D139" s="5" t="s">
         <v>1067</v>
       </c>
@@ -14463,8 +14485,8 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C140" s="8"/>
+    <row r="140" spans="2:11">
+      <c r="C140" s="12"/>
       <c r="D140" s="5" t="s">
         <v>1070</v>
       </c>
@@ -14478,8 +14500,8 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C141" s="8"/>
+    <row r="141" spans="2:11">
+      <c r="C141" s="12"/>
       <c r="D141" s="5" t="s">
         <v>1072</v>
       </c>
@@ -14493,8 +14515,8 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C142" s="8"/>
+    <row r="142" spans="2:11">
+      <c r="C142" s="12"/>
       <c r="D142" s="5" t="s">
         <v>1078</v>
       </c>
@@ -14508,8 +14530,8 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="143" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C143" s="8"/>
+    <row r="143" spans="2:11" ht="60">
+      <c r="C143" s="12"/>
       <c r="D143" s="5" t="s">
         <v>1079</v>
       </c>
@@ -14523,8 +14545,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="144" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C144" s="8"/>
+    <row r="144" spans="2:11" ht="30">
+      <c r="C144" s="12"/>
       <c r="D144" s="5" t="s">
         <v>1080</v>
       </c>
@@ -14538,8 +14560,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C145" s="8"/>
+    <row r="145" spans="3:8" ht="45">
+      <c r="C145" s="12"/>
       <c r="D145" s="5" t="s">
         <v>1082</v>
       </c>
@@ -14553,8 +14575,8 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="146" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C146" s="8"/>
+    <row r="146" spans="3:8" ht="60">
+      <c r="C146" s="12"/>
       <c r="D146" s="5" t="s">
         <v>1083</v>
       </c>
@@ -14568,8 +14590,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C147" s="8"/>
+    <row r="147" spans="3:8" ht="60">
+      <c r="C147" s="12"/>
       <c r="D147" s="5" t="s">
         <v>1096</v>
       </c>
@@ -14583,8 +14605,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C148" s="8"/>
+    <row r="148" spans="3:8" ht="60">
+      <c r="C148" s="12"/>
       <c r="D148" s="5" t="s">
         <v>1084</v>
       </c>
@@ -14598,8 +14620,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C149" s="8"/>
+    <row r="149" spans="3:8" ht="60">
+      <c r="C149" s="12"/>
       <c r="D149" s="5" t="s">
         <v>1085</v>
       </c>
@@ -14613,8 +14635,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C150" s="8"/>
+    <row r="150" spans="3:8" ht="60">
+      <c r="C150" s="12"/>
       <c r="D150" s="5" t="s">
         <v>1086</v>
       </c>
@@ -14628,8 +14650,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="151" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C151" s="8"/>
+    <row r="151" spans="3:8" ht="60">
+      <c r="C151" s="12"/>
       <c r="D151" s="5" t="s">
         <v>1087</v>
       </c>
@@ -14643,8 +14665,8 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C152" s="8"/>
+    <row r="152" spans="3:8">
+      <c r="C152" s="12"/>
       <c r="D152" s="5" t="s">
         <v>1088</v>
       </c>
@@ -14658,8 +14680,8 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C153" s="8"/>
+    <row r="153" spans="3:8">
+      <c r="C153" s="12"/>
       <c r="D153" s="5" t="s">
         <v>1089</v>
       </c>
@@ -14673,8 +14695,8 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="154" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C154" s="8"/>
+    <row r="154" spans="3:8" ht="60">
+      <c r="C154" s="12"/>
       <c r="D154" s="5" t="s">
         <v>1090</v>
       </c>
@@ -14688,8 +14710,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="155" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C155" s="8"/>
+    <row r="155" spans="3:8" ht="30">
+      <c r="C155" s="12"/>
       <c r="D155" s="5" t="s">
         <v>1128</v>
       </c>
@@ -14703,8 +14725,8 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="156" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C156" s="8"/>
+    <row r="156" spans="3:8" ht="30">
+      <c r="C156" s="12"/>
       <c r="D156" s="5" t="s">
         <v>1091</v>
       </c>
@@ -14718,8 +14740,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C157" s="8"/>
+    <row r="157" spans="3:8" ht="45">
+      <c r="C157" s="12"/>
       <c r="D157" s="5" t="s">
         <v>1105</v>
       </c>
@@ -14733,8 +14755,8 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="158" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C158" s="8"/>
+    <row r="158" spans="3:8" ht="60">
+      <c r="C158" s="12"/>
       <c r="D158" s="5" t="s">
         <v>1106</v>
       </c>
@@ -14748,8 +14770,8 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="159" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C159" s="8"/>
+    <row r="159" spans="3:8" ht="60">
+      <c r="C159" s="12"/>
       <c r="D159" s="5" t="s">
         <v>1107</v>
       </c>
@@ -14763,8 +14785,8 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="160" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C160" s="8"/>
+    <row r="160" spans="3:8" ht="60">
+      <c r="C160" s="12"/>
       <c r="D160" s="5" t="s">
         <v>1108</v>
       </c>
@@ -14778,8 +14800,8 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="161" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C161" s="8"/>
+    <row r="161" spans="3:8" ht="60">
+      <c r="C161" s="12"/>
       <c r="D161" s="5" t="s">
         <v>1109</v>
       </c>
@@ -14793,8 +14815,8 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="162" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C162" s="8"/>
+    <row r="162" spans="3:8" ht="60">
+      <c r="C162" s="12"/>
       <c r="D162" s="5" t="s">
         <v>1110</v>
       </c>
@@ -14808,8 +14830,8 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="163" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C163" s="8"/>
+    <row r="163" spans="3:8" ht="60">
+      <c r="C163" s="12"/>
       <c r="D163" s="5" t="s">
         <v>1111</v>
       </c>
@@ -14823,8 +14845,8 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C164" s="8"/>
+    <row r="164" spans="3:8">
+      <c r="C164" s="12"/>
       <c r="D164" s="5" t="s">
         <v>1112</v>
       </c>
@@ -14838,8 +14860,8 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C165" s="8"/>
+    <row r="165" spans="3:8">
+      <c r="C165" s="12"/>
       <c r="D165" s="5" t="s">
         <v>1113</v>
       </c>
@@ -14853,8 +14875,8 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="166" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C166" s="8"/>
+    <row r="166" spans="3:8" ht="60">
+      <c r="C166" s="12"/>
       <c r="D166" s="5" t="s">
         <v>1114</v>
       </c>
@@ -14868,8 +14890,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="167" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C167" s="8"/>
+    <row r="167" spans="3:8" ht="30">
+      <c r="C167" s="12"/>
       <c r="D167" s="5" t="s">
         <v>1131</v>
       </c>
@@ -14883,8 +14905,8 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="168" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C168" s="8"/>
+    <row r="168" spans="3:8" ht="30">
+      <c r="C168" s="12"/>
       <c r="D168" s="5" t="s">
         <v>1115</v>
       </c>
@@ -14898,8 +14920,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="169" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C169" s="8"/>
+    <row r="169" spans="3:8" ht="45">
+      <c r="C169" s="12"/>
       <c r="D169" s="5" t="s">
         <v>1135</v>
       </c>
@@ -14913,8 +14935,8 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="170" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C170" s="8"/>
+    <row r="170" spans="3:8" ht="60">
+      <c r="C170" s="12"/>
       <c r="D170" s="5" t="s">
         <v>1136</v>
       </c>
@@ -14928,8 +14950,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="171" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C171" s="8"/>
+    <row r="171" spans="3:8" ht="60">
+      <c r="C171" s="12"/>
       <c r="D171" s="5" t="s">
         <v>1137</v>
       </c>
@@ -14943,8 +14965,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="172" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C172" s="8"/>
+    <row r="172" spans="3:8" ht="60">
+      <c r="C172" s="12"/>
       <c r="D172" s="5" t="s">
         <v>1138</v>
       </c>
@@ -14958,8 +14980,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="173" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C173" s="8"/>
+    <row r="173" spans="3:8" ht="60">
+      <c r="C173" s="12"/>
       <c r="D173" s="5" t="s">
         <v>1139</v>
       </c>
@@ -14973,8 +14995,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="174" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C174" s="8"/>
+    <row r="174" spans="3:8" ht="60">
+      <c r="C174" s="12"/>
       <c r="D174" s="5" t="s">
         <v>1140</v>
       </c>
@@ -14988,8 +15010,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="175" spans="3:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C175" s="8"/>
+    <row r="175" spans="3:8" ht="60">
+      <c r="C175" s="12"/>
       <c r="D175" s="5" t="s">
         <v>1141</v>
       </c>
@@ -15003,8 +15025,8 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C176" s="8"/>
+    <row r="176" spans="3:8">
+      <c r="C176" s="12"/>
       <c r="D176" s="5" t="s">
         <v>1142</v>
       </c>
@@ -15018,8 +15040,8 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="177" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C177" s="8"/>
+    <row r="177" spans="2:11" ht="30">
+      <c r="C177" s="12"/>
       <c r="D177" s="5" t="s">
         <v>1143</v>
       </c>
@@ -15033,8 +15055,8 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="178" spans="2:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="C178" s="8"/>
+    <row r="178" spans="2:11" ht="60">
+      <c r="C178" s="12"/>
       <c r="D178" s="5" t="s">
         <v>1144</v>
       </c>
@@ -15048,8 +15070,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="179" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C179" s="8"/>
+    <row r="179" spans="2:11" ht="30">
+      <c r="C179" s="12"/>
       <c r="D179" s="5" t="s">
         <v>1145</v>
       </c>
@@ -15063,8 +15085,8 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="180" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C180" s="8"/>
+    <row r="180" spans="2:11" ht="30">
+      <c r="C180" s="12"/>
       <c r="D180" s="5" t="s">
         <v>1146</v>
       </c>
@@ -15078,8 +15100,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C181" s="8"/>
+    <row r="181" spans="2:11">
+      <c r="C181" s="12"/>
       <c r="D181" s="5" t="s">
         <v>142</v>
       </c>
@@ -15090,9 +15112,9 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="182" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" s="3" customFormat="1">
       <c r="B182"/>
-      <c r="C182" s="8"/>
+      <c r="C182" s="12"/>
       <c r="D182" s="5" t="s">
         <v>125</v>
       </c>
@@ -15107,9 +15129,9 @@
       </c>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" s="3" customFormat="1">
       <c r="B183"/>
-      <c r="C183" s="8"/>
+      <c r="C183" s="12"/>
       <c r="D183" s="5" t="s">
         <v>151</v>
       </c>
@@ -15124,8 +15146,8 @@
       </c>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C184" s="8" t="s">
+    <row r="184" spans="2:11" ht="45">
+      <c r="C184" s="12" t="s">
         <v>1162</v>
       </c>
       <c r="D184" s="5" t="s">
@@ -15141,8 +15163,8 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="185" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C185" s="8"/>
+    <row r="185" spans="2:11" ht="45">
+      <c r="C185" s="12"/>
       <c r="D185" s="5" t="s">
         <v>1173</v>
       </c>
@@ -15156,8 +15178,8 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="186" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C186" s="8"/>
+    <row r="186" spans="2:11" ht="30">
+      <c r="C186" s="12"/>
       <c r="D186" s="5" t="s">
         <v>1176</v>
       </c>
@@ -15171,8 +15193,8 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C187" s="8"/>
+    <row r="187" spans="2:11">
+      <c r="C187" s="12"/>
       <c r="D187" s="5" t="s">
         <v>1218</v>
       </c>
@@ -15184,8 +15206,8 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C188" s="8"/>
+    <row r="188" spans="2:11">
+      <c r="C188" s="12"/>
       <c r="D188" s="5" t="s">
         <v>1164</v>
       </c>
@@ -15197,8 +15219,8 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C189" s="8"/>
+    <row r="189" spans="2:11">
+      <c r="C189" s="12"/>
       <c r="D189" s="5" t="s">
         <v>1181</v>
       </c>
@@ -15212,8 +15234,8 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C190" s="8"/>
+    <row r="190" spans="2:11">
+      <c r="C190" s="12"/>
       <c r="D190" s="5" t="s">
         <v>1184</v>
       </c>
@@ -15227,8 +15249,8 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="191" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C191" s="8"/>
+    <row r="191" spans="2:11" ht="45">
+      <c r="C191" s="12"/>
       <c r="D191" s="5" t="s">
         <v>1190</v>
       </c>
@@ -15242,8 +15264,8 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="192" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C192" s="8"/>
+    <row r="192" spans="2:11" s="3" customFormat="1">
+      <c r="C192" s="12"/>
       <c r="D192" s="5" t="s">
         <v>1188</v>
       </c>
@@ -15258,8 +15280,8 @@
       </c>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="3:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C193" s="8"/>
+    <row r="193" spans="3:11" ht="30">
+      <c r="C193" s="12"/>
       <c r="D193" s="5" t="s">
         <v>1191</v>
       </c>
@@ -15273,8 +15295,8 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="194" spans="3:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C194" s="8"/>
+    <row r="194" spans="3:11" s="3" customFormat="1" ht="30">
+      <c r="C194" s="12"/>
       <c r="D194" s="5" t="s">
         <v>1194</v>
       </c>
@@ -15289,8 +15311,8 @@
       </c>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="3:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C195" s="8"/>
+    <row r="195" spans="3:11" s="3" customFormat="1" ht="30">
+      <c r="C195" s="12"/>
       <c r="D195" s="5" t="s">
         <v>1343</v>
       </c>
@@ -15305,8 +15327,8 @@
       </c>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C196" s="8"/>
+    <row r="196" spans="3:11" s="3" customFormat="1">
+      <c r="C196" s="12"/>
       <c r="D196" s="5" t="s">
         <v>1347</v>
       </c>
@@ -15321,8 +15343,8 @@
       </c>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="3:11" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C197" s="8"/>
+    <row r="197" spans="3:11" s="3" customFormat="1" ht="30">
+      <c r="C197" s="12"/>
       <c r="D197" s="5" t="s">
         <v>1348</v>
       </c>
@@ -15337,8 +15359,8 @@
       </c>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C198" s="8"/>
+    <row r="198" spans="3:11">
+      <c r="C198" s="12"/>
       <c r="D198" s="5" t="s">
         <v>1195</v>
       </c>
@@ -15352,8 +15374,8 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="199" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C199" s="8"/>
+    <row r="199" spans="3:11">
+      <c r="C199" s="12"/>
       <c r="D199" s="5" t="s">
         <v>1196</v>
       </c>
@@ -15367,8 +15389,8 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="200" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C200" s="8"/>
+    <row r="200" spans="3:11">
+      <c r="C200" s="12"/>
       <c r="D200" s="5" t="s">
         <v>1199</v>
       </c>
@@ -15382,8 +15404,8 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="201" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C201" s="8"/>
+    <row r="201" spans="3:11">
+      <c r="C201" s="12"/>
       <c r="D201" s="5" t="s">
         <v>1202</v>
       </c>
@@ -15397,8 +15419,8 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="202" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C202" s="8"/>
+    <row r="202" spans="3:11">
+      <c r="C202" s="12"/>
       <c r="D202" s="5" t="s">
         <v>1203</v>
       </c>
@@ -15412,8 +15434,8 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="203" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C203" s="8"/>
+    <row r="203" spans="3:11">
+      <c r="C203" s="12"/>
       <c r="D203" s="5" t="s">
         <v>1208</v>
       </c>
@@ -15427,8 +15449,8 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="204" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C204" s="8"/>
+    <row r="204" spans="3:11">
+      <c r="C204" s="12"/>
       <c r="D204" s="5" t="s">
         <v>1212</v>
       </c>
@@ -15442,8 +15464,8 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="205" spans="3:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="C205" s="8"/>
+    <row r="205" spans="3:11" ht="75">
+      <c r="C205" s="12"/>
       <c r="D205" t="s">
         <v>1213</v>
       </c>
@@ -15457,8 +15479,8 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="206" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C206" s="8"/>
+    <row r="206" spans="3:11">
+      <c r="C206" s="12"/>
       <c r="D206" t="s">
         <v>1214</v>
       </c>
@@ -15472,8 +15494,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C207" s="8"/>
+    <row r="207" spans="3:11">
+      <c r="C207" s="12"/>
       <c r="D207" s="5" t="s">
         <v>1215</v>
       </c>
@@ -15487,8 +15509,8 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="208" spans="3:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C208" s="8"/>
+    <row r="208" spans="3:11" ht="45">
+      <c r="C208" s="12"/>
       <c r="D208" s="5" t="s">
         <v>1221</v>
       </c>
@@ -15502,8 +15524,8 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C209" s="8"/>
+    <row r="209" spans="3:8">
+      <c r="C209" s="12"/>
       <c r="D209" s="5" t="s">
         <v>1224</v>
       </c>
@@ -15517,8 +15539,8 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C210" s="8"/>
+    <row r="210" spans="3:8">
+      <c r="C210" s="12"/>
       <c r="D210" s="5" t="s">
         <v>1226</v>
       </c>
@@ -15532,8 +15554,8 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="211" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C211" s="8"/>
+    <row r="211" spans="3:8" ht="45">
+      <c r="C211" s="12"/>
       <c r="D211" s="5" t="s">
         <v>1228</v>
       </c>
@@ -15547,8 +15569,8 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="212" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C212" s="8"/>
+    <row r="212" spans="3:8" ht="45">
+      <c r="C212" s="12"/>
       <c r="D212" s="5" t="s">
         <v>904</v>
       </c>
@@ -15562,8 +15584,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="213" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C213" s="8" t="s">
+    <row r="213" spans="3:8" ht="30">
+      <c r="C213" s="12" t="s">
         <v>566</v>
       </c>
       <c r="D213" s="5" t="s">
@@ -15576,8 +15598,8 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C214" s="8"/>
+    <row r="214" spans="3:8">
+      <c r="C214" s="12"/>
       <c r="D214" s="5" t="s">
         <v>106</v>
       </c>
@@ -15588,8 +15610,8 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C215" s="8"/>
+    <row r="215" spans="3:8">
+      <c r="C215" s="12"/>
       <c r="D215" s="5" t="s">
         <v>669</v>
       </c>
@@ -15603,8 +15625,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="216" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C216" s="8"/>
+    <row r="216" spans="3:8" ht="30">
+      <c r="C216" s="12"/>
       <c r="D216" s="5" t="s">
         <v>570</v>
       </c>
@@ -15615,8 +15637,8 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="217" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C217" s="8"/>
+    <row r="217" spans="3:8" ht="30">
+      <c r="C217" s="12"/>
       <c r="D217" s="5" t="s">
         <v>1234</v>
       </c>
@@ -15627,8 +15649,8 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C218" s="8"/>
+    <row r="218" spans="3:8">
+      <c r="C218" s="12"/>
       <c r="D218" s="5" t="s">
         <v>574</v>
       </c>
@@ -15639,8 +15661,8 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="219" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C219" s="8"/>
+    <row r="219" spans="3:8" ht="30">
+      <c r="C219" s="12"/>
       <c r="D219" s="5" t="s">
         <v>1239</v>
       </c>
@@ -15651,8 +15673,8 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C220" s="8"/>
+    <row r="220" spans="3:8">
+      <c r="C220" s="12"/>
       <c r="D220" s="5" t="s">
         <v>597</v>
       </c>
@@ -15666,8 +15688,8 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C221" s="8"/>
+    <row r="221" spans="3:8">
+      <c r="C221" s="12"/>
       <c r="D221" s="5" t="s">
         <v>1243</v>
       </c>
@@ -15681,8 +15703,8 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="222" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C222" s="8"/>
+    <row r="222" spans="3:8" ht="30">
+      <c r="C222" s="12"/>
       <c r="D222" s="5" t="s">
         <v>1247</v>
       </c>
@@ -15696,8 +15718,8 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="223" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C223" s="8"/>
+    <row r="223" spans="3:8" ht="30">
+      <c r="C223" s="12"/>
       <c r="D223" s="5" t="s">
         <v>1251</v>
       </c>
@@ -15711,8 +15733,8 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="224" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C224" s="8"/>
+    <row r="224" spans="3:8" ht="45">
+      <c r="C224" s="12"/>
       <c r="D224" s="5" t="s">
         <v>1254</v>
       </c>
@@ -15723,8 +15745,8 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C225" s="8"/>
+    <row r="225" spans="2:11">
+      <c r="C225" s="12"/>
       <c r="D225" s="5" t="s">
         <v>1256</v>
       </c>
@@ -15735,8 +15757,8 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C226" s="8"/>
+    <row r="226" spans="2:11">
+      <c r="C226" s="12"/>
       <c r="D226" s="5" t="s">
         <v>615</v>
       </c>
@@ -15747,8 +15769,8 @@
         <v>617</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C227" s="8"/>
+    <row r="227" spans="2:11">
+      <c r="C227" s="12"/>
       <c r="D227" s="5" t="s">
         <v>619</v>
       </c>
@@ -15762,8 +15784,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C228" s="8"/>
+    <row r="228" spans="2:11">
+      <c r="C228" s="12"/>
       <c r="D228" s="5" t="s">
         <v>620</v>
       </c>
@@ -15774,9 +15796,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="229" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:11" s="3" customFormat="1" ht="45">
       <c r="B229"/>
-      <c r="C229" s="8"/>
+      <c r="C229" s="12"/>
       <c r="D229" s="5" t="s">
         <v>292</v>
       </c>
@@ -15791,8 +15813,8 @@
       </c>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C230" s="8" t="s">
+    <row r="230" spans="2:11" ht="30">
+      <c r="C230" s="12" t="s">
         <v>1259</v>
       </c>
       <c r="D230" s="5" t="s">
@@ -15805,8 +15827,8 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C231" s="8"/>
+    <row r="231" spans="2:11">
+      <c r="C231" s="12"/>
       <c r="D231" s="5" t="s">
         <v>106</v>
       </c>
@@ -15817,8 +15839,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C232" s="8"/>
+    <row r="232" spans="2:11">
+      <c r="C232" s="12"/>
       <c r="D232" s="5" t="s">
         <v>628</v>
       </c>
@@ -15829,8 +15851,8 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="233" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C233" s="8"/>
+    <row r="233" spans="2:11" ht="30">
+      <c r="C233" s="12"/>
       <c r="D233" s="5" t="s">
         <v>1264</v>
       </c>
@@ -15841,8 +15863,8 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="234" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C234" s="8"/>
+    <row r="234" spans="2:11" ht="30">
+      <c r="C234" s="12"/>
       <c r="D234" s="5" t="s">
         <v>631</v>
       </c>
@@ -15853,8 +15875,8 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="235" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C235" s="8"/>
+    <row r="235" spans="2:11" ht="45">
+      <c r="C235" s="12"/>
       <c r="D235" s="5" t="s">
         <v>1268</v>
       </c>
@@ -15865,8 +15887,8 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C236" s="8"/>
+    <row r="236" spans="2:11">
+      <c r="C236" s="12"/>
       <c r="D236" s="5" t="s">
         <v>1269</v>
       </c>
@@ -15877,8 +15899,8 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="237" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C237" s="8"/>
+    <row r="237" spans="2:11" ht="45">
+      <c r="C237" s="12"/>
       <c r="D237" s="5" t="s">
         <v>904</v>
       </c>
@@ -15892,8 +15914,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="238" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C238" s="8" t="s">
+    <row r="238" spans="2:11" ht="30">
+      <c r="C238" s="12" t="s">
         <v>649</v>
       </c>
       <c r="D238" s="5" t="s">
@@ -15906,8 +15928,8 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C239" s="8"/>
+    <row r="239" spans="2:11">
+      <c r="C239" s="12"/>
       <c r="D239" s="5" t="s">
         <v>106</v>
       </c>
@@ -15918,8 +15940,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="240" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C240" s="8"/>
+    <row r="240" spans="2:11" ht="30">
+      <c r="C240" s="12"/>
       <c r="D240" s="5" t="s">
         <v>1274</v>
       </c>
@@ -15930,8 +15952,8 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="241" spans="3:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C241" s="8"/>
+    <row r="241" spans="3:11" ht="30">
+      <c r="C241" s="12"/>
       <c r="D241" s="5" t="s">
         <v>1277</v>
       </c>
@@ -15942,8 +15964,8 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="242" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C242" s="8"/>
+    <row r="242" spans="3:11">
+      <c r="C242" s="12"/>
       <c r="D242" s="5" t="s">
         <v>1279</v>
       </c>
@@ -15957,8 +15979,8 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="243" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C243" s="8"/>
+    <row r="243" spans="3:11">
+      <c r="C243" s="12"/>
       <c r="D243" s="5" t="s">
         <v>1285</v>
       </c>
@@ -15972,8 +15994,8 @@
         <v>641</v>
       </c>
     </row>
-    <row r="244" spans="3:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C244" s="8"/>
+    <row r="244" spans="3:11" ht="30">
+      <c r="C244" s="12"/>
       <c r="D244" s="5" t="s">
         <v>1286</v>
       </c>
@@ -15987,8 +16009,8 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="245" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C245" s="8"/>
+    <row r="245" spans="3:11">
+      <c r="C245" s="12"/>
       <c r="D245" s="5" t="s">
         <v>1287</v>
       </c>
@@ -16002,8 +16024,8 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="246" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C246" s="8"/>
+    <row r="246" spans="3:11">
+      <c r="C246" s="12"/>
       <c r="D246" s="5" t="s">
         <v>1291</v>
       </c>
@@ -16017,8 +16039,8 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="247" spans="3:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C247" s="8" t="s">
+    <row r="247" spans="3:11" ht="30">
+      <c r="C247" s="12" t="s">
         <v>1295</v>
       </c>
       <c r="D247" s="5" t="s">
@@ -16031,8 +16053,8 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="248" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C248" s="8"/>
+    <row r="248" spans="3:11">
+      <c r="C248" s="12"/>
       <c r="D248" s="5" t="s">
         <v>669</v>
       </c>
@@ -16046,8 +16068,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="249" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C249" s="8"/>
+    <row r="249" spans="3:11">
+      <c r="C249" s="12"/>
       <c r="D249" s="5" t="s">
         <v>1297</v>
       </c>
@@ -16058,8 +16080,8 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="250" spans="3:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C250" s="8"/>
+    <row r="250" spans="3:11" ht="30">
+      <c r="C250" s="12"/>
       <c r="D250" s="5" t="s">
         <v>1300</v>
       </c>
@@ -16070,8 +16092,8 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="251" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C251" s="8"/>
+    <row r="251" spans="3:11" s="3" customFormat="1">
+      <c r="C251" s="12"/>
       <c r="D251" s="5" t="s">
         <v>1303</v>
       </c>
@@ -16086,8 +16108,8 @@
       </c>
       <c r="K251" s="6"/>
     </row>
-    <row r="252" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C252" s="8"/>
+    <row r="252" spans="3:11">
+      <c r="C252" s="12"/>
       <c r="D252" s="5" t="s">
         <v>1307</v>
       </c>
@@ -16101,8 +16123,8 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="253" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C253" s="8"/>
+    <row r="253" spans="3:11">
+      <c r="C253" s="12"/>
       <c r="D253" s="5" t="s">
         <v>1311</v>
       </c>
@@ -16116,8 +16138,8 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="254" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C254" s="8"/>
+    <row r="254" spans="3:11">
+      <c r="C254" s="12"/>
       <c r="D254" s="5" t="s">
         <v>619</v>
       </c>
@@ -16131,8 +16153,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="255" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C255" s="8"/>
+    <row r="255" spans="3:11">
+      <c r="C255" s="12"/>
       <c r="D255" s="5" t="s">
         <v>620</v>
       </c>
@@ -16143,8 +16165,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="256" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C256" s="8"/>
+    <row r="256" spans="3:11">
+      <c r="C256" s="12"/>
       <c r="D256" s="5" t="s">
         <v>1256</v>
       </c>
@@ -16155,8 +16177,8 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C257" s="8"/>
+    <row r="257" spans="2:11">
+      <c r="C257" s="12"/>
       <c r="D257" s="5" t="s">
         <v>1330</v>
       </c>
@@ -16167,9 +16189,9 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="258" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" s="3" customFormat="1" ht="45">
       <c r="B258"/>
-      <c r="C258" s="8"/>
+      <c r="C258" s="12"/>
       <c r="D258" s="5" t="s">
         <v>292</v>
       </c>
@@ -16184,8 +16206,8 @@
       </c>
       <c r="K258" s="6"/>
     </row>
-    <row r="259" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C259" s="8" t="s">
+    <row r="259" spans="2:11" ht="30">
+      <c r="C259" s="12" t="s">
         <v>626</v>
       </c>
       <c r="D259" s="5" t="s">
@@ -16198,8 +16220,8 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C260" s="8"/>
+    <row r="260" spans="2:11">
+      <c r="C260" s="12"/>
       <c r="D260" s="5" t="s">
         <v>106</v>
       </c>
@@ -16210,8 +16232,8 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C261" s="8"/>
+    <row r="261" spans="2:11">
+      <c r="C261" s="12"/>
       <c r="D261" s="5" t="s">
         <v>628</v>
       </c>
@@ -16222,8 +16244,8 @@
         <v>633</v>
       </c>
     </row>
-    <row r="262" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C262" s="8"/>
+    <row r="262" spans="2:11" ht="30">
+      <c r="C262" s="12"/>
       <c r="D262" s="5" t="s">
         <v>631</v>
       </c>
@@ -16234,8 +16256,8 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C263" s="8"/>
+    <row r="263" spans="2:11">
+      <c r="C263" s="12"/>
       <c r="D263" s="5" t="s">
         <v>635</v>
       </c>
@@ -16249,8 +16271,8 @@
         <v>637</v>
       </c>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C264" s="8"/>
+    <row r="264" spans="2:11">
+      <c r="C264" s="12"/>
       <c r="D264" s="5" t="s">
         <v>638</v>
       </c>
@@ -16264,8 +16286,8 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C265" s="8"/>
+    <row r="265" spans="2:11">
+      <c r="C265" s="12"/>
       <c r="D265" s="5" t="s">
         <v>642</v>
       </c>
@@ -16279,9 +16301,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="266" spans="2:11" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" s="3" customFormat="1" ht="45">
       <c r="B266"/>
-      <c r="C266" s="8"/>
+      <c r="C266" s="12"/>
       <c r="D266" s="5" t="s">
         <v>292</v>
       </c>
@@ -16296,8 +16318,8 @@
       </c>
       <c r="K266" s="6"/>
     </row>
-    <row r="267" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C267" s="8" t="s">
+    <row r="267" spans="2:11" ht="30">
+      <c r="C267" s="12" t="s">
         <v>649</v>
       </c>
       <c r="D267" s="5" t="s">
@@ -16310,8 +16332,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C268" s="8"/>
+    <row r="268" spans="2:11">
+      <c r="C268" s="12"/>
       <c r="D268" s="5" t="s">
         <v>106</v>
       </c>
@@ -16322,8 +16344,8 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C269" s="8"/>
+    <row r="269" spans="2:11">
+      <c r="C269" s="12"/>
       <c r="D269" s="5" t="s">
         <v>655</v>
       </c>
@@ -16337,8 +16359,8 @@
         <v>656</v>
       </c>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C270" s="8"/>
+    <row r="270" spans="2:11">
+      <c r="C270" s="12"/>
       <c r="D270" s="5" t="s">
         <v>657</v>
       </c>
@@ -16352,8 +16374,8 @@
         <v>659</v>
       </c>
     </row>
-    <row r="271" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="C271" s="8"/>
+    <row r="271" spans="2:11" ht="30">
+      <c r="C271" s="12"/>
       <c r="D271" s="5" t="s">
         <v>631</v>
       </c>
@@ -16364,8 +16386,8 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C272" s="8"/>
+    <row r="272" spans="2:11">
+      <c r="C272" s="12"/>
       <c r="D272" s="5" t="s">
         <v>635</v>
       </c>
@@ -16379,8 +16401,8 @@
         <v>637</v>
       </c>
     </row>
-    <row r="273" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C273" s="8"/>
+    <row r="273" spans="3:8">
+      <c r="C273" s="12"/>
       <c r="D273" s="5" t="s">
         <v>638</v>
       </c>
@@ -16394,8 +16416,8 @@
         <v>641</v>
       </c>
     </row>
-    <row r="274" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C274" s="8"/>
+    <row r="274" spans="3:8">
+      <c r="C274" s="12"/>
       <c r="D274" s="5" t="s">
         <v>642</v>
       </c>
@@ -16409,8 +16431,8 @@
         <v>644</v>
       </c>
     </row>
-    <row r="275" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C275" s="8"/>
+    <row r="275" spans="3:8">
+      <c r="C275" s="12"/>
       <c r="D275" s="5" t="s">
         <v>660</v>
       </c>
@@ -16424,8 +16446,8 @@
         <v>662</v>
       </c>
     </row>
-    <row r="276" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C276" s="8"/>
+    <row r="276" spans="3:8">
+      <c r="C276" s="12"/>
       <c r="D276" s="5" t="s">
         <v>663</v>
       </c>
@@ -16439,8 +16461,8 @@
         <v>665</v>
       </c>
     </row>
-    <row r="277" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C277" s="8" t="s">
+    <row r="277" spans="3:8" ht="45">
+      <c r="C277" s="12" t="s">
         <v>1323</v>
       </c>
       <c r="D277" s="5" t="s">
@@ -16453,8 +16475,8 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="278" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C278" s="8"/>
+    <row r="278" spans="3:8">
+      <c r="C278" s="12"/>
       <c r="D278" s="5" t="s">
         <v>106</v>
       </c>
@@ -16465,8 +16487,8 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="279" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C279" s="8"/>
+    <row r="279" spans="3:8">
+      <c r="C279" s="12"/>
       <c r="D279" s="5" t="s">
         <v>669</v>
       </c>
@@ -16480,8 +16502,8 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="280" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C280" s="8"/>
+    <row r="280" spans="3:8" ht="45">
+      <c r="C280" s="12"/>
       <c r="D280" s="5" t="s">
         <v>677</v>
       </c>
@@ -16492,8 +16514,8 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="281" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C281" s="8"/>
+    <row r="281" spans="3:8">
+      <c r="C281" s="12"/>
       <c r="D281" s="5" t="s">
         <v>680</v>
       </c>
@@ -16504,8 +16526,8 @@
         <v>682</v>
       </c>
     </row>
-    <row r="282" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C282" s="8"/>
+    <row r="282" spans="3:8">
+      <c r="C282" s="12"/>
       <c r="D282" s="5" t="s">
         <v>367</v>
       </c>
@@ -16519,8 +16541,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="283" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C283" s="8"/>
+    <row r="283" spans="3:8">
+      <c r="C283" s="12"/>
       <c r="D283" s="5" t="s">
         <v>371</v>
       </c>
@@ -16531,8 +16553,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="284" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="C284" s="8"/>
+    <row r="284" spans="3:8" ht="45">
+      <c r="C284" s="12"/>
       <c r="D284" s="5" t="s">
         <v>292</v>
       </c>
@@ -16547,7 +16569,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="285" spans="3:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:8" ht="30">
       <c r="C285" t="s">
         <v>1334</v>
       </c>
@@ -16561,7 +16583,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="286" spans="3:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:8" ht="45">
       <c r="D286" s="5" t="s">
         <v>1352</v>
       </c>
@@ -16572,7 +16594,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="287" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:8">
       <c r="D287" s="5" t="s">
         <v>1336</v>
       </c>
@@ -16585,6 +16607,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C259:C266"/>
+    <mergeCell ref="C267:C276"/>
+    <mergeCell ref="C277:C284"/>
+    <mergeCell ref="C184:C212"/>
+    <mergeCell ref="C213:C229"/>
+    <mergeCell ref="C230:C237"/>
+    <mergeCell ref="C238:C246"/>
+    <mergeCell ref="C247:C258"/>
     <mergeCell ref="C134:C183"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B3:B6"/>
@@ -16597,14 +16627,6 @@
     <mergeCell ref="C68:C72"/>
     <mergeCell ref="C73:C78"/>
     <mergeCell ref="C79:C108"/>
-    <mergeCell ref="C259:C266"/>
-    <mergeCell ref="C267:C276"/>
-    <mergeCell ref="C277:C284"/>
-    <mergeCell ref="C184:C212"/>
-    <mergeCell ref="C213:C229"/>
-    <mergeCell ref="C230:C237"/>
-    <mergeCell ref="C238:C246"/>
-    <mergeCell ref="C247:C258"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
